--- a/BI-Pipeline/output/ai_energy_data.xlsx
+++ b/BI-Pipeline/output/ai_energy_data.xlsx
@@ -114,10 +114,10 @@
     <t>United States</t>
   </si>
   <si>
-    <t>South Korea</t>
+    <t>France</t>
   </si>
   <si>
-    <t>France</t>
+    <t>South Korea</t>
   </si>
   <si>
     <t>Oceania</t>
@@ -138,16 +138,22 @@
     <t>Industry</t>
   </si>
   <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Legal</t>
-  </si>
-  <si>
     <t>Automotive</t>
   </si>
   <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
     <t>Gaming</t>
+  </si>
+  <si>
+    <t>Media</t>
   </si>
   <si>
     <t>Retail</t>
@@ -156,16 +162,10 @@
     <t>Education</t>
   </si>
   <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Marketing</t>
+    <t>Legal</t>
   </si>
   <si>
     <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Finance</t>
   </si>
   <si>
     <t>Year</t>
@@ -174,22 +174,22 @@
     <t>Decade</t>
   </si>
   <si>
-    <t>2000s</t>
+    <t>2000.0s</t>
   </si>
   <si>
-    <t>2010s</t>
+    <t>2010.0s</t>
   </si>
   <si>
-    <t>2020s</t>
+    <t>2020.0s</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Strict</t>
+    <t>Moderate</t>
   </si>
   <si>
-    <t>Moderate</t>
+    <t>Strict</t>
   </si>
   <si>
     <t>Lenient</t>
@@ -201,7 +201,13 @@
     <t>Tool_Type</t>
   </si>
   <si>
-    <t>Bard</t>
+    <t>Claude</t>
+  </si>
+  <si>
+    <t>Synthesia</t>
+  </si>
+  <si>
+    <t>ChatGPT</t>
   </si>
   <si>
     <t>DALL-E</t>
@@ -210,25 +216,19 @@
     <t>Stable Diffusion</t>
   </si>
   <si>
-    <t>Claude</t>
-  </si>
-  <si>
     <t>Midjourney</t>
   </si>
   <si>
-    <t>ChatGPT</t>
-  </si>
-  <si>
-    <t>Synthesia</t>
+    <t>Bard</t>
   </si>
   <si>
     <t>Text Generation</t>
   </si>
   <si>
-    <t>Image Generation</t>
+    <t>Video Generation</t>
   </si>
   <si>
-    <t>Video Generation</t>
+    <t>Image Generation</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S201"/>
+  <dimension ref="A1:S199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -659,13 +659,13 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>35.59</v>
@@ -718,31 +718,31 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>20.5</v>
+        <v>47.75</v>
       </c>
       <c r="G3">
-        <v>21.02</v>
+        <v>69.67</v>
       </c>
       <c r="H3">
-        <v>5.47</v>
+        <v>27.81</v>
       </c>
       <c r="I3">
-        <v>79.55</v>
+        <v>55.74</v>
       </c>
       <c r="J3">
-        <v>44.82</v>
+        <v>68.67</v>
       </c>
       <c r="K3">
-        <v>13.25</v>
+        <v>9.18</v>
       </c>
       <c r="L3">
         <v>4509.51</v>
@@ -777,31 +777,31 @@
         <v>21</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>86.40000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="G4">
-        <v>33.91</v>
+        <v>21.02</v>
       </c>
       <c r="H4">
-        <v>17.15</v>
+        <v>5.47</v>
       </c>
       <c r="I4">
-        <v>59.2</v>
+        <v>79.55</v>
       </c>
       <c r="J4">
-        <v>76.05</v>
+        <v>44.82</v>
       </c>
       <c r="K4">
-        <v>37.53</v>
+        <v>13.25</v>
       </c>
       <c r="L4">
         <v>4509.51</v>
@@ -836,31 +836,31 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>47.75</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="G5">
-        <v>69.67</v>
+        <v>33.91</v>
       </c>
       <c r="H5">
-        <v>27.81</v>
+        <v>17.15</v>
       </c>
       <c r="I5">
-        <v>55.74</v>
+        <v>59.2</v>
       </c>
       <c r="J5">
-        <v>68.67</v>
+        <v>76.05</v>
       </c>
       <c r="K5">
-        <v>9.18</v>
+        <v>37.53</v>
       </c>
       <c r="L5">
         <v>4509.51</v>
@@ -895,31 +895,31 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>74.70999999999999</v>
+        <v>75.93000000000001</v>
       </c>
       <c r="G6">
-        <v>57.44</v>
+        <v>76.22</v>
       </c>
       <c r="H6">
-        <v>25.91</v>
+        <v>43.3</v>
       </c>
       <c r="I6">
-        <v>47.8</v>
+        <v>10.63</v>
       </c>
       <c r="J6">
-        <v>49.17</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="K6">
-        <v>43.77</v>
+        <v>6.82</v>
       </c>
       <c r="L6">
         <v>4878.83</v>
@@ -954,31 +954,31 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>75.93000000000001</v>
+        <v>74.70999999999999</v>
       </c>
       <c r="G7">
-        <v>76.22</v>
+        <v>57.44</v>
       </c>
       <c r="H7">
-        <v>43.3</v>
+        <v>25.91</v>
       </c>
       <c r="I7">
-        <v>10.63</v>
+        <v>47.8</v>
       </c>
       <c r="J7">
-        <v>65.56999999999999</v>
+        <v>49.17</v>
       </c>
       <c r="K7">
-        <v>6.82</v>
+        <v>43.77</v>
       </c>
       <c r="L7">
         <v>4878.83</v>
@@ -1013,13 +1013,13 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>80.3</v>
@@ -1072,13 +1072,13 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>19.64</v>
@@ -1137,25 +1137,25 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>6.14</v>
+        <v>20.49</v>
       </c>
       <c r="G10">
-        <v>68.23</v>
+        <v>45.35</v>
       </c>
       <c r="H10">
-        <v>6.2</v>
+        <v>33.21</v>
       </c>
       <c r="I10">
-        <v>53.13</v>
+        <v>50.5</v>
       </c>
       <c r="J10">
-        <v>71.59999999999999</v>
+        <v>47.42</v>
       </c>
       <c r="K10">
-        <v>15.26</v>
+        <v>43.11</v>
       </c>
       <c r="L10">
         <v>4936.77</v>
@@ -1190,31 +1190,31 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>20.49</v>
+        <v>7.44</v>
       </c>
       <c r="G11">
-        <v>45.35</v>
+        <v>18.43</v>
       </c>
       <c r="H11">
-        <v>33.21</v>
+        <v>2.75</v>
       </c>
       <c r="I11">
-        <v>50.5</v>
+        <v>12.96</v>
       </c>
       <c r="J11">
-        <v>47.42</v>
+        <v>73.34</v>
       </c>
       <c r="K11">
-        <v>43.11</v>
+        <v>6.21</v>
       </c>
       <c r="L11">
         <v>4936.77</v>
@@ -1249,31 +1249,31 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>67.48999999999999</v>
+        <v>6.14</v>
       </c>
       <c r="G12">
-        <v>91.41</v>
+        <v>68.23</v>
       </c>
       <c r="H12">
-        <v>6.67</v>
+        <v>6.2</v>
       </c>
       <c r="I12">
-        <v>71.61</v>
+        <v>53.13</v>
       </c>
       <c r="J12">
-        <v>53.96</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="K12">
-        <v>29.35</v>
+        <v>15.26</v>
       </c>
       <c r="L12">
         <v>4936.77</v>
@@ -1308,31 +1308,31 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>7.44</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="G13">
-        <v>18.43</v>
+        <v>91.41</v>
       </c>
       <c r="H13">
-        <v>2.75</v>
+        <v>6.67</v>
       </c>
       <c r="I13">
-        <v>12.96</v>
+        <v>71.61</v>
       </c>
       <c r="J13">
-        <v>73.34</v>
+        <v>53.96</v>
       </c>
       <c r="K13">
-        <v>6.21</v>
+        <v>29.35</v>
       </c>
       <c r="L13">
         <v>4936.77</v>
@@ -1367,13 +1367,13 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>33.34</v>
@@ -1426,31 +1426,31 @@
         <v>26</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>61.24</v>
+        <v>94.62</v>
       </c>
       <c r="G15">
-        <v>62.64</v>
+        <v>35.83</v>
       </c>
       <c r="H15">
-        <v>37.25</v>
+        <v>29.11</v>
       </c>
       <c r="I15">
-        <v>43.72</v>
+        <v>65.36</v>
       </c>
       <c r="J15">
-        <v>79.68000000000001</v>
+        <v>38.02</v>
       </c>
       <c r="K15">
-        <v>47.08</v>
+        <v>20.93</v>
       </c>
       <c r="L15">
         <v>-1</v>
@@ -1485,31 +1485,31 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>94.62</v>
+        <v>61.24</v>
       </c>
       <c r="G16">
-        <v>35.83</v>
+        <v>62.64</v>
       </c>
       <c r="H16">
-        <v>29.11</v>
+        <v>37.25</v>
       </c>
       <c r="I16">
-        <v>65.36</v>
+        <v>43.72</v>
       </c>
       <c r="J16">
-        <v>38.02</v>
+        <v>79.68000000000001</v>
       </c>
       <c r="K16">
-        <v>20.93</v>
+        <v>47.08</v>
       </c>
       <c r="L16">
         <v>-1</v>
@@ -1544,31 +1544,31 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>57.79</v>
+        <v>36.33</v>
       </c>
       <c r="G17">
-        <v>39.94</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="H17">
-        <v>46.08</v>
+        <v>22.77</v>
       </c>
       <c r="I17">
-        <v>44.31</v>
+        <v>24.34</v>
       </c>
       <c r="J17">
-        <v>46.49</v>
+        <v>45.16</v>
       </c>
       <c r="K17">
-        <v>37.29</v>
+        <v>15.34</v>
       </c>
       <c r="L17">
         <v>4574.88</v>
@@ -1606,28 +1606,28 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>16.05</v>
+        <v>1.52</v>
       </c>
       <c r="G18">
-        <v>50.97</v>
+        <v>41.32</v>
       </c>
       <c r="H18">
-        <v>46.78</v>
+        <v>34.42</v>
       </c>
       <c r="I18">
-        <v>62.71</v>
+        <v>17.23</v>
       </c>
       <c r="J18">
-        <v>60.09</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="K18">
-        <v>31.02</v>
+        <v>37.79</v>
       </c>
       <c r="L18">
         <v>4574.88</v>
@@ -1662,31 +1662,31 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>56.38</v>
+        <v>16.05</v>
       </c>
       <c r="G19">
-        <v>60.69</v>
+        <v>50.97</v>
       </c>
       <c r="H19">
-        <v>29.34</v>
+        <v>46.78</v>
       </c>
       <c r="I19">
-        <v>28.55</v>
+        <v>62.71</v>
       </c>
       <c r="J19">
-        <v>30.81</v>
+        <v>60.09</v>
       </c>
       <c r="K19">
-        <v>3.26</v>
+        <v>31.02</v>
       </c>
       <c r="L19">
         <v>4574.88</v>
@@ -1721,31 +1721,31 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>36.33</v>
+        <v>56.38</v>
       </c>
       <c r="G20">
-        <v>68.23999999999999</v>
+        <v>60.69</v>
       </c>
       <c r="H20">
-        <v>22.77</v>
+        <v>29.34</v>
       </c>
       <c r="I20">
-        <v>24.34</v>
+        <v>28.55</v>
       </c>
       <c r="J20">
-        <v>45.16</v>
+        <v>30.81</v>
       </c>
       <c r="K20">
-        <v>15.34</v>
+        <v>3.26</v>
       </c>
       <c r="L20">
         <v>4574.88</v>
@@ -1780,31 +1780,31 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21">
-        <v>1.52</v>
+        <v>57.79</v>
       </c>
       <c r="G21">
-        <v>41.32</v>
+        <v>39.94</v>
       </c>
       <c r="H21">
-        <v>34.42</v>
+        <v>46.08</v>
       </c>
       <c r="I21">
-        <v>17.23</v>
+        <v>44.31</v>
       </c>
       <c r="J21">
-        <v>70.43000000000001</v>
+        <v>46.49</v>
       </c>
       <c r="K21">
-        <v>37.79</v>
+        <v>37.29</v>
       </c>
       <c r="L21">
         <v>4574.88</v>
@@ -1839,13 +1839,13 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22">
         <v>73.59999999999999</v>
@@ -1898,31 +1898,31 @@
         <v>23</v>
       </c>
       <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
         <v>2</v>
       </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>7</v>
-      </c>
       <c r="F23">
-        <v>95.29000000000001</v>
+        <v>28.47</v>
       </c>
       <c r="G23">
-        <v>27.53</v>
+        <v>11.14</v>
       </c>
       <c r="H23">
-        <v>29.08</v>
+        <v>43.11</v>
       </c>
       <c r="I23">
-        <v>13.91</v>
+        <v>50.61</v>
       </c>
       <c r="J23">
-        <v>70.43000000000001</v>
+        <v>81.93000000000001</v>
       </c>
       <c r="K23">
-        <v>9.06</v>
+        <v>47.32</v>
       </c>
       <c r="L23">
         <v>4191.79</v>
@@ -1960,28 +1960,28 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>28.47</v>
+        <v>90.69</v>
       </c>
       <c r="G24">
-        <v>11.14</v>
+        <v>52.43</v>
       </c>
       <c r="H24">
-        <v>43.11</v>
+        <v>37.9</v>
       </c>
       <c r="I24">
-        <v>50.61</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="J24">
-        <v>81.93000000000001</v>
+        <v>63.92</v>
       </c>
       <c r="K24">
-        <v>47.32</v>
+        <v>47.98</v>
       </c>
       <c r="L24">
         <v>4191.79</v>
@@ -2016,13 +2016,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F25">
         <v>65.70999999999999</v>
@@ -2075,31 +2075,31 @@
         <v>23</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26">
-        <v>90.69</v>
+        <v>95.29000000000001</v>
       </c>
       <c r="G26">
-        <v>52.43</v>
+        <v>27.53</v>
       </c>
       <c r="H26">
-        <v>37.9</v>
+        <v>29.08</v>
       </c>
       <c r="I26">
-        <v>9.779999999999999</v>
+        <v>13.91</v>
       </c>
       <c r="J26">
-        <v>63.92</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="K26">
-        <v>47.98</v>
+        <v>9.06</v>
       </c>
       <c r="L26">
         <v>4191.79</v>
@@ -2134,31 +2134,31 @@
         <v>24</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F27">
-        <v>17.53</v>
+        <v>49.43</v>
       </c>
       <c r="G27">
-        <v>61.49</v>
+        <v>31.96</v>
       </c>
       <c r="H27">
-        <v>48.25</v>
+        <v>28.25</v>
       </c>
       <c r="I27">
-        <v>20.74</v>
+        <v>56.09</v>
       </c>
       <c r="J27">
-        <v>87.90000000000001</v>
+        <v>69.59</v>
       </c>
       <c r="K27">
-        <v>29.32</v>
+        <v>21.86</v>
       </c>
       <c r="L27">
         <v>5119.77</v>
@@ -2193,31 +2193,31 @@
         <v>24</v>
       </c>
       <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>4</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>5</v>
-      </c>
       <c r="F28">
-        <v>49.43</v>
+        <v>17.53</v>
       </c>
       <c r="G28">
-        <v>31.96</v>
+        <v>61.49</v>
       </c>
       <c r="H28">
-        <v>28.25</v>
+        <v>48.25</v>
       </c>
       <c r="I28">
-        <v>56.09</v>
+        <v>20.74</v>
       </c>
       <c r="J28">
-        <v>69.59</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K28">
-        <v>21.86</v>
+        <v>29.32</v>
       </c>
       <c r="L28">
         <v>5119.77</v>
@@ -2252,31 +2252,31 @@
         <v>26</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29">
-        <v>6.81</v>
+        <v>84.81999999999999</v>
       </c>
       <c r="G29">
-        <v>82.25</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="H29">
-        <v>30.99</v>
+        <v>26.41</v>
       </c>
       <c r="I29">
-        <v>76.88</v>
+        <v>4.72</v>
       </c>
       <c r="J29">
-        <v>33.48</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="K29">
-        <v>27.13</v>
+        <v>45.04</v>
       </c>
       <c r="L29">
         <v>-1</v>
@@ -2311,13 +2311,13 @@
         <v>26</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F30">
         <v>17.58</v>
@@ -2370,13 +2370,13 @@
         <v>26</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>87.77</v>
@@ -2429,31 +2429,31 @@
         <v>26</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F32">
-        <v>84.81999999999999</v>
+        <v>6.81</v>
       </c>
       <c r="G32">
-        <v>78.43000000000001</v>
+        <v>82.25</v>
       </c>
       <c r="H32">
-        <v>26.41</v>
+        <v>30.99</v>
       </c>
       <c r="I32">
-        <v>4.72</v>
+        <v>76.88</v>
       </c>
       <c r="J32">
-        <v>64.48999999999999</v>
+        <v>33.48</v>
       </c>
       <c r="K32">
-        <v>45.04</v>
+        <v>27.13</v>
       </c>
       <c r="L32">
         <v>-1</v>
@@ -2488,13 +2488,13 @@
         <v>21</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F33">
         <v>52.8</v>
@@ -2547,13 +2547,13 @@
         <v>21</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>84.15000000000001</v>
@@ -2606,13 +2606,13 @@
         <v>21</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35">
         <v>77.29000000000001</v>
@@ -2665,13 +2665,13 @@
         <v>21</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>94.67</v>
@@ -2724,31 +2724,31 @@
         <v>21</v>
       </c>
       <c r="C37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>82.47</v>
+        <v>16.96</v>
       </c>
       <c r="G37">
-        <v>45.27</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="H37">
-        <v>12.07</v>
+        <v>20.47</v>
       </c>
       <c r="I37">
-        <v>57.15</v>
+        <v>26.27</v>
       </c>
       <c r="J37">
-        <v>42.57</v>
+        <v>70.17</v>
       </c>
       <c r="K37">
-        <v>39.35</v>
+        <v>45.17</v>
       </c>
       <c r="L37">
         <v>6133.21</v>
@@ -2783,13 +2783,13 @@
         <v>21</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F38">
         <v>1.55</v>
@@ -2842,7 +2842,7 @@
         <v>21</v>
       </c>
       <c r="C39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2851,22 +2851,22 @@
         <v>6</v>
       </c>
       <c r="F39">
-        <v>16.96</v>
+        <v>82.47</v>
       </c>
       <c r="G39">
-        <v>93.48999999999999</v>
+        <v>45.27</v>
       </c>
       <c r="H39">
-        <v>20.47</v>
+        <v>12.07</v>
       </c>
       <c r="I39">
-        <v>26.27</v>
+        <v>57.15</v>
       </c>
       <c r="J39">
-        <v>70.17</v>
+        <v>42.57</v>
       </c>
       <c r="K39">
-        <v>45.17</v>
+        <v>39.35</v>
       </c>
       <c r="L39">
         <v>6133.21</v>
@@ -2901,31 +2901,31 @@
         <v>22</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
         <v>2</v>
       </c>
-      <c r="E40">
-        <v>5</v>
-      </c>
       <c r="F40">
-        <v>40.12</v>
+        <v>58.35</v>
       </c>
       <c r="G40">
-        <v>85.09</v>
+        <v>14.76</v>
       </c>
       <c r="H40">
-        <v>34.67</v>
+        <v>39.61</v>
       </c>
       <c r="I40">
-        <v>50.96</v>
+        <v>76.52</v>
       </c>
       <c r="J40">
-        <v>61.28</v>
+        <v>81.84</v>
       </c>
       <c r="K40">
-        <v>25.64</v>
+        <v>22.64</v>
       </c>
       <c r="L40">
         <v>5733.56</v>
@@ -2960,13 +2960,13 @@
         <v>22</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F41">
         <v>51.2</v>
@@ -3019,31 +3019,31 @@
         <v>22</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F42">
-        <v>58.35</v>
+        <v>40.12</v>
       </c>
       <c r="G42">
-        <v>14.76</v>
+        <v>85.09</v>
       </c>
       <c r="H42">
-        <v>39.61</v>
+        <v>34.67</v>
       </c>
       <c r="I42">
-        <v>76.52</v>
+        <v>50.96</v>
       </c>
       <c r="J42">
-        <v>81.84</v>
+        <v>61.28</v>
       </c>
       <c r="K42">
-        <v>22.64</v>
+        <v>25.64</v>
       </c>
       <c r="L42">
         <v>5733.56</v>
@@ -3084,25 +3084,25 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F43">
-        <v>38.13</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="G43">
-        <v>26.27</v>
+        <v>46.72</v>
       </c>
       <c r="H43">
-        <v>21.79</v>
+        <v>15.77</v>
       </c>
       <c r="I43">
-        <v>3.37</v>
+        <v>75.69</v>
       </c>
       <c r="J43">
-        <v>54.57</v>
+        <v>83.61</v>
       </c>
       <c r="K43">
-        <v>38.02</v>
+        <v>33.06</v>
       </c>
       <c r="L43">
         <v>3912.5</v>
@@ -3137,7 +3137,7 @@
         <v>23</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -3146,22 +3146,22 @@
         <v>6</v>
       </c>
       <c r="F44">
-        <v>85.73999999999999</v>
+        <v>63.35</v>
       </c>
       <c r="G44">
-        <v>46.72</v>
+        <v>39.48</v>
       </c>
       <c r="H44">
-        <v>15.77</v>
+        <v>25.56</v>
       </c>
       <c r="I44">
-        <v>75.69</v>
+        <v>55.14</v>
       </c>
       <c r="J44">
-        <v>83.61</v>
+        <v>42.94</v>
       </c>
       <c r="K44">
-        <v>33.06</v>
+        <v>36.32</v>
       </c>
       <c r="L44">
         <v>3912.5</v>
@@ -3196,31 +3196,31 @@
         <v>23</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F45">
-        <v>63.35</v>
+        <v>38.13</v>
       </c>
       <c r="G45">
-        <v>39.48</v>
+        <v>26.27</v>
       </c>
       <c r="H45">
-        <v>25.56</v>
+        <v>21.79</v>
       </c>
       <c r="I45">
-        <v>55.14</v>
+        <v>3.37</v>
       </c>
       <c r="J45">
-        <v>42.94</v>
+        <v>54.57</v>
       </c>
       <c r="K45">
-        <v>36.32</v>
+        <v>38.02</v>
       </c>
       <c r="L45">
         <v>3912.5</v>
@@ -3258,28 +3258,28 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F46">
-        <v>6.59</v>
+        <v>8.68</v>
       </c>
       <c r="G46">
-        <v>66.93000000000001</v>
+        <v>27.02</v>
       </c>
       <c r="H46">
-        <v>3.23</v>
+        <v>25.44</v>
       </c>
       <c r="I46">
-        <v>0.85</v>
+        <v>8.51</v>
       </c>
       <c r="J46">
-        <v>43.34</v>
+        <v>84.37</v>
       </c>
       <c r="K46">
-        <v>5.41</v>
+        <v>14.69</v>
       </c>
       <c r="L46">
         <v>4911.22</v>
@@ -3314,13 +3314,13 @@
         <v>24</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>60.93</v>
@@ -3373,31 +3373,31 @@
         <v>24</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F48">
-        <v>8.68</v>
+        <v>6.59</v>
       </c>
       <c r="G48">
-        <v>27.02</v>
+        <v>66.93000000000001</v>
       </c>
       <c r="H48">
-        <v>25.44</v>
+        <v>3.23</v>
       </c>
       <c r="I48">
-        <v>8.51</v>
+        <v>0.85</v>
       </c>
       <c r="J48">
-        <v>84.37</v>
+        <v>43.34</v>
       </c>
       <c r="K48">
-        <v>14.69</v>
+        <v>5.41</v>
       </c>
       <c r="L48">
         <v>4911.22</v>
@@ -3432,13 +3432,13 @@
         <v>25</v>
       </c>
       <c r="C49">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F49">
         <v>89.58</v>
@@ -3491,31 +3491,31 @@
         <v>26</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F50">
-        <v>66.73999999999999</v>
+        <v>18.74</v>
       </c>
       <c r="G50">
-        <v>34.75</v>
+        <v>25.5</v>
       </c>
       <c r="H50">
-        <v>46.89</v>
+        <v>15.07</v>
       </c>
       <c r="I50">
-        <v>52.46</v>
+        <v>40.81</v>
       </c>
       <c r="J50">
-        <v>35.67</v>
+        <v>51.07</v>
       </c>
       <c r="K50">
-        <v>35.02</v>
+        <v>39.97</v>
       </c>
       <c r="L50">
         <v>-1</v>
@@ -3550,31 +3550,31 @@
         <v>26</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F51">
-        <v>44.74</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="G51">
-        <v>87.73</v>
+        <v>70.04000000000001</v>
       </c>
       <c r="H51">
-        <v>42.89</v>
+        <v>29.79</v>
       </c>
       <c r="I51">
-        <v>78.5</v>
+        <v>23.17</v>
       </c>
       <c r="J51">
-        <v>78.54000000000001</v>
+        <v>41.08</v>
       </c>
       <c r="K51">
-        <v>32.72</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="L51">
         <v>-1</v>
@@ -3609,31 +3609,31 @@
         <v>26</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>66.59999999999999</v>
+        <v>55.73999999999999</v>
       </c>
       <c r="G52">
-        <v>70.04000000000001</v>
+        <v>61.24</v>
       </c>
       <c r="H52">
-        <v>29.79</v>
+        <v>44.89</v>
       </c>
       <c r="I52">
-        <v>23.17</v>
+        <v>65.48</v>
       </c>
       <c r="J52">
-        <v>41.08</v>
+        <v>57.105</v>
       </c>
       <c r="K52">
-        <v>8.390000000000001</v>
+        <v>33.87</v>
       </c>
       <c r="L52">
         <v>-1</v>
@@ -3662,61 +3662,61 @@
     </row>
     <row r="53" spans="1:19">
       <c r="A53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B53">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F53">
-        <v>18.74</v>
+        <v>21.66</v>
       </c>
       <c r="G53">
-        <v>25.5</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="H53">
-        <v>15.07</v>
+        <v>37.69</v>
       </c>
       <c r="I53">
-        <v>40.81</v>
+        <v>28.02</v>
       </c>
       <c r="J53">
-        <v>51.07</v>
+        <v>40.8</v>
       </c>
       <c r="K53">
-        <v>39.97</v>
+        <v>37.87</v>
       </c>
       <c r="L53">
-        <v>-1</v>
+        <v>5299.24</v>
       </c>
       <c r="M53">
-        <v>-1</v>
+        <v>24576.99</v>
       </c>
       <c r="N53">
-        <v>-1</v>
+        <v>22.85</v>
       </c>
       <c r="O53">
-        <v>-1</v>
+        <v>49.54</v>
       </c>
       <c r="P53">
-        <v>-1</v>
+        <v>57.82</v>
       </c>
       <c r="Q53">
-        <v>-1</v>
+        <v>21.9</v>
       </c>
       <c r="R53">
-        <v>-1</v>
+        <v>3397.73</v>
       </c>
       <c r="S53">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -3727,13 +3727,13 @@
         <v>21</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F54">
         <v>76.54000000000001</v>
@@ -3786,13 +3786,13 @@
         <v>21</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F55">
         <v>28.26</v>
@@ -3845,13 +3845,13 @@
         <v>21</v>
       </c>
       <c r="C56">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F56">
         <v>68.16</v>
@@ -3904,13 +3904,13 @@
         <v>21</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
         <v>2</v>
-      </c>
-      <c r="E57">
-        <v>7</v>
       </c>
       <c r="F57">
         <v>36.58</v>
@@ -3960,58 +3960,58 @@
         <v>5</v>
       </c>
       <c r="B58">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F58">
-        <v>21.66</v>
+        <v>52.98</v>
       </c>
       <c r="G58">
-        <v>71.90000000000001</v>
+        <v>89.44</v>
       </c>
       <c r="H58">
-        <v>37.69</v>
+        <v>48.47</v>
       </c>
       <c r="I58">
-        <v>28.02</v>
+        <v>12.14</v>
       </c>
       <c r="J58">
-        <v>40.8</v>
+        <v>77.20999999999999</v>
       </c>
       <c r="K58">
-        <v>37.87</v>
+        <v>44.35</v>
       </c>
       <c r="L58">
-        <v>5299.24</v>
+        <v>5522.09</v>
       </c>
       <c r="M58">
-        <v>24576.99</v>
+        <v>21742.31</v>
       </c>
       <c r="N58">
-        <v>22.85</v>
+        <v>21.03</v>
       </c>
       <c r="O58">
-        <v>49.54</v>
+        <v>74.94</v>
       </c>
       <c r="P58">
-        <v>57.82</v>
+        <v>59.6</v>
       </c>
       <c r="Q58">
-        <v>21.9</v>
+        <v>37.71</v>
       </c>
       <c r="R58">
-        <v>3397.73</v>
+        <v>1864.9</v>
       </c>
       <c r="S58">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -4022,7 +4022,7 @@
         <v>22</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -4031,22 +4031,22 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>42.29</v>
+        <v>3.56</v>
       </c>
       <c r="G59">
-        <v>40.8</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="H59">
-        <v>21.03</v>
+        <v>33.94</v>
       </c>
       <c r="I59">
-        <v>62.27</v>
+        <v>68.33</v>
       </c>
       <c r="J59">
-        <v>77.31</v>
+        <v>41.73</v>
       </c>
       <c r="K59">
-        <v>12.95</v>
+        <v>39.04</v>
       </c>
       <c r="L59">
         <v>5522.09</v>
@@ -4081,31 +4081,31 @@
         <v>22</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D60">
         <v>3</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F60">
-        <v>52.98</v>
+        <v>42.29</v>
       </c>
       <c r="G60">
-        <v>89.44</v>
+        <v>40.8</v>
       </c>
       <c r="H60">
-        <v>48.47</v>
+        <v>21.03</v>
       </c>
       <c r="I60">
-        <v>12.14</v>
+        <v>62.27</v>
       </c>
       <c r="J60">
-        <v>77.20999999999999</v>
+        <v>77.31</v>
       </c>
       <c r="K60">
-        <v>44.35</v>
+        <v>12.95</v>
       </c>
       <c r="L60">
         <v>5522.09</v>
@@ -4140,13 +4140,13 @@
         <v>22</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F61">
         <v>11.8</v>
@@ -4199,31 +4199,31 @@
         <v>22</v>
       </c>
       <c r="C62">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>4</v>
       </c>
       <c r="F62">
-        <v>3.56</v>
+        <v>99.06</v>
       </c>
       <c r="G62">
-        <v>81.18000000000001</v>
+        <v>20.25</v>
       </c>
       <c r="H62">
-        <v>33.94</v>
+        <v>3.81</v>
       </c>
       <c r="I62">
-        <v>68.33</v>
+        <v>6.61</v>
       </c>
       <c r="J62">
-        <v>41.73</v>
+        <v>80.65000000000001</v>
       </c>
       <c r="K62">
-        <v>39.04</v>
+        <v>5.5</v>
       </c>
       <c r="L62">
         <v>5522.09</v>
@@ -4255,58 +4255,58 @@
         <v>5</v>
       </c>
       <c r="B63">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C63">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>99.06</v>
+        <v>12.55</v>
       </c>
       <c r="G63">
-        <v>20.25</v>
+        <v>87.95</v>
       </c>
       <c r="H63">
-        <v>3.81</v>
+        <v>12.61</v>
       </c>
       <c r="I63">
-        <v>6.61</v>
+        <v>3.82</v>
       </c>
       <c r="J63">
-        <v>80.65000000000001</v>
+        <v>34.37</v>
       </c>
       <c r="K63">
-        <v>5.5</v>
+        <v>31.99</v>
       </c>
       <c r="L63">
-        <v>5522.09</v>
+        <v>5965.5</v>
       </c>
       <c r="M63">
-        <v>21742.31</v>
+        <v>8509.799999999999</v>
       </c>
       <c r="N63">
-        <v>21.03</v>
+        <v>86.87</v>
       </c>
       <c r="O63">
-        <v>74.94</v>
+        <v>15.29</v>
       </c>
       <c r="P63">
-        <v>59.6</v>
+        <v>20.64</v>
       </c>
       <c r="Q63">
-        <v>37.71</v>
+        <v>38.17</v>
       </c>
       <c r="R63">
-        <v>1864.9</v>
+        <v>4498.51</v>
       </c>
       <c r="S63">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -4317,13 +4317,13 @@
         <v>23</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F64">
         <v>52.54</v>
@@ -4373,58 +4373,58 @@
         <v>5</v>
       </c>
       <c r="B65">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C65">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F65">
-        <v>12.55</v>
+        <v>30.56</v>
       </c>
       <c r="G65">
-        <v>87.95</v>
+        <v>88.75</v>
       </c>
       <c r="H65">
-        <v>12.61</v>
+        <v>31.35</v>
       </c>
       <c r="I65">
-        <v>3.82</v>
+        <v>60.23</v>
       </c>
       <c r="J65">
-        <v>34.37</v>
+        <v>70.19</v>
       </c>
       <c r="K65">
-        <v>31.99</v>
+        <v>30.79</v>
       </c>
       <c r="L65">
-        <v>5965.5</v>
+        <v>4784.33</v>
       </c>
       <c r="M65">
-        <v>8509.799999999999</v>
+        <v>30334.93</v>
       </c>
       <c r="N65">
-        <v>86.87</v>
+        <v>44.96</v>
       </c>
       <c r="O65">
-        <v>15.29</v>
+        <v>74.48999999999999</v>
       </c>
       <c r="P65">
-        <v>20.64</v>
+        <v>46.96</v>
       </c>
       <c r="Q65">
-        <v>38.17</v>
+        <v>22.78</v>
       </c>
       <c r="R65">
-        <v>4498.51</v>
+        <v>1751.25</v>
       </c>
       <c r="S65">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -4435,31 +4435,31 @@
         <v>24</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F66">
-        <v>75.92</v>
+        <v>26.53</v>
       </c>
       <c r="G66">
-        <v>43.4</v>
+        <v>20.95</v>
       </c>
       <c r="H66">
-        <v>9.640000000000001</v>
+        <v>5.89</v>
       </c>
       <c r="I66">
-        <v>33.23</v>
+        <v>2.28</v>
       </c>
       <c r="J66">
-        <v>87.28</v>
+        <v>82.45</v>
       </c>
       <c r="K66">
-        <v>48.39</v>
+        <v>44.86</v>
       </c>
       <c r="L66">
         <v>4784.33</v>
@@ -4494,13 +4494,13 @@
         <v>24</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F67">
         <v>69.51000000000001</v>
@@ -4553,31 +4553,31 @@
         <v>24</v>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>6</v>
       </c>
       <c r="F68">
-        <v>30.56</v>
+        <v>75.92</v>
       </c>
       <c r="G68">
-        <v>88.75</v>
+        <v>43.4</v>
       </c>
       <c r="H68">
-        <v>31.35</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="I68">
-        <v>60.23</v>
+        <v>33.23</v>
       </c>
       <c r="J68">
-        <v>70.19</v>
+        <v>87.28</v>
       </c>
       <c r="K68">
-        <v>30.79</v>
+        <v>48.39</v>
       </c>
       <c r="L68">
         <v>4784.33</v>
@@ -4609,117 +4609,117 @@
         <v>5</v>
       </c>
       <c r="B69">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C69">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>26.53</v>
+        <v>52.86</v>
       </c>
       <c r="G69">
-        <v>20.95</v>
+        <v>17.05</v>
       </c>
       <c r="H69">
-        <v>5.89</v>
+        <v>46.37</v>
       </c>
       <c r="I69">
-        <v>2.28</v>
+        <v>70.84999999999999</v>
       </c>
       <c r="J69">
-        <v>82.45</v>
+        <v>83.17</v>
       </c>
       <c r="K69">
-        <v>44.86</v>
+        <v>45.6</v>
       </c>
       <c r="L69">
-        <v>4784.33</v>
+        <v>5209.63</v>
       </c>
       <c r="M69">
-        <v>30334.93</v>
+        <v>3318.28</v>
       </c>
       <c r="N69">
-        <v>44.96</v>
+        <v>14.26</v>
       </c>
       <c r="O69">
-        <v>74.48999999999999</v>
+        <v>10.67</v>
       </c>
       <c r="P69">
-        <v>46.96</v>
+        <v>23.53</v>
       </c>
       <c r="Q69">
-        <v>22.78</v>
+        <v>34.58</v>
       </c>
       <c r="R69">
-        <v>1751.25</v>
+        <v>1387.79</v>
       </c>
       <c r="S69">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="70" spans="1:19">
       <c r="A70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B70">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C70">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70">
-        <v>52.86</v>
+        <v>36.49</v>
       </c>
       <c r="G70">
-        <v>17.05</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="H70">
-        <v>46.37</v>
+        <v>29.72</v>
       </c>
       <c r="I70">
-        <v>70.84999999999999</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="J70">
-        <v>83.17</v>
+        <v>48.27</v>
       </c>
       <c r="K70">
-        <v>45.6</v>
+        <v>44.8</v>
       </c>
       <c r="L70">
-        <v>5209.63</v>
+        <v>5219.84</v>
       </c>
       <c r="M70">
-        <v>3318.28</v>
+        <v>9768.08</v>
       </c>
       <c r="N70">
-        <v>14.26</v>
+        <v>82.88</v>
       </c>
       <c r="O70">
-        <v>10.67</v>
+        <v>17.45</v>
       </c>
       <c r="P70">
-        <v>23.53</v>
+        <v>27</v>
       </c>
       <c r="Q70">
-        <v>34.58</v>
+        <v>36.94</v>
       </c>
       <c r="R70">
-        <v>1387.79</v>
+        <v>616.4400000000001</v>
       </c>
       <c r="S70">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -4733,28 +4733,28 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F71">
-        <v>14.89</v>
+        <v>5.21</v>
       </c>
       <c r="G71">
-        <v>43.55</v>
+        <v>64.03</v>
       </c>
       <c r="H71">
-        <v>13.87</v>
+        <v>41.36</v>
       </c>
       <c r="I71">
-        <v>41.09</v>
+        <v>53.59</v>
       </c>
       <c r="J71">
-        <v>86.44</v>
+        <v>37.89</v>
       </c>
       <c r="K71">
-        <v>35.3</v>
+        <v>34.26</v>
       </c>
       <c r="L71">
         <v>5219.84</v>
@@ -4789,31 +4789,31 @@
         <v>21</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72">
-        <v>5.21</v>
+        <v>14.89</v>
       </c>
       <c r="G72">
-        <v>64.03</v>
+        <v>43.55</v>
       </c>
       <c r="H72">
-        <v>41.36</v>
+        <v>13.87</v>
       </c>
       <c r="I72">
-        <v>53.59</v>
+        <v>41.09</v>
       </c>
       <c r="J72">
-        <v>37.89</v>
+        <v>86.44</v>
       </c>
       <c r="K72">
-        <v>34.26</v>
+        <v>35.3</v>
       </c>
       <c r="L72">
         <v>5219.84</v>
@@ -4848,31 +4848,31 @@
         <v>21</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F73">
-        <v>36.49</v>
+        <v>27.55</v>
       </c>
       <c r="G73">
-        <v>80.04000000000001</v>
+        <v>93.72</v>
       </c>
       <c r="H73">
-        <v>29.72</v>
+        <v>48.33</v>
       </c>
       <c r="I73">
-        <v>76.73999999999999</v>
+        <v>31.86</v>
       </c>
       <c r="J73">
-        <v>48.27</v>
+        <v>73.23</v>
       </c>
       <c r="K73">
-        <v>44.8</v>
+        <v>9.67</v>
       </c>
       <c r="L73">
         <v>5219.84</v>
@@ -4907,31 +4907,31 @@
         <v>21</v>
       </c>
       <c r="C74">
+        <v>8</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
         <v>5</v>
       </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
       <c r="F74">
-        <v>27.55</v>
+        <v>19.97</v>
       </c>
       <c r="G74">
-        <v>93.72</v>
+        <v>70.48</v>
       </c>
       <c r="H74">
-        <v>48.33</v>
+        <v>33.75</v>
       </c>
       <c r="I74">
-        <v>31.86</v>
+        <v>15.07</v>
       </c>
       <c r="J74">
-        <v>73.23</v>
+        <v>48.13</v>
       </c>
       <c r="K74">
-        <v>9.67</v>
+        <v>40.32</v>
       </c>
       <c r="L74">
         <v>5219.84</v>
@@ -4963,58 +4963,58 @@
         <v>6</v>
       </c>
       <c r="B75">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F75">
-        <v>19.97</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="G75">
-        <v>70.48</v>
+        <v>63.04</v>
       </c>
       <c r="H75">
-        <v>33.75</v>
+        <v>6.68</v>
       </c>
       <c r="I75">
-        <v>15.07</v>
+        <v>50.72</v>
       </c>
       <c r="J75">
-        <v>48.13</v>
+        <v>33.36</v>
       </c>
       <c r="K75">
-        <v>40.32</v>
+        <v>38.6</v>
       </c>
       <c r="L75">
-        <v>5219.84</v>
+        <v>5191.12</v>
       </c>
       <c r="M75">
-        <v>9768.08</v>
+        <v>14917.42</v>
       </c>
       <c r="N75">
-        <v>82.88</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="O75">
-        <v>17.45</v>
+        <v>69.84</v>
       </c>
       <c r="P75">
-        <v>27</v>
+        <v>50.34</v>
       </c>
       <c r="Q75">
-        <v>36.94</v>
+        <v>18.85</v>
       </c>
       <c r="R75">
-        <v>616.4400000000001</v>
+        <v>2806.5</v>
       </c>
       <c r="S75">
-        <v>0.35</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -5025,31 +5025,31 @@
         <v>22</v>
       </c>
       <c r="C76">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F76">
-        <v>82.48999999999999</v>
+        <v>48.59</v>
       </c>
       <c r="G76">
-        <v>63.04</v>
+        <v>45.37</v>
       </c>
       <c r="H76">
-        <v>6.68</v>
+        <v>47.42</v>
       </c>
       <c r="I76">
-        <v>50.72</v>
+        <v>40.66</v>
       </c>
       <c r="J76">
-        <v>33.36</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="K76">
-        <v>38.6</v>
+        <v>47.48</v>
       </c>
       <c r="L76">
         <v>5191.12</v>
@@ -5081,58 +5081,58 @@
         <v>6</v>
       </c>
       <c r="B77">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C77">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F77">
-        <v>48.59</v>
+        <v>34.49</v>
       </c>
       <c r="G77">
-        <v>45.37</v>
+        <v>28.48</v>
       </c>
       <c r="H77">
-        <v>47.42</v>
+        <v>18.44</v>
       </c>
       <c r="I77">
-        <v>40.66</v>
+        <v>23.5</v>
       </c>
       <c r="J77">
-        <v>74.95999999999999</v>
+        <v>57.31</v>
       </c>
       <c r="K77">
-        <v>47.48</v>
+        <v>14.27</v>
       </c>
       <c r="L77">
-        <v>5191.12</v>
+        <v>5052.62</v>
       </c>
       <c r="M77">
-        <v>14917.42</v>
+        <v>14623.31</v>
       </c>
       <c r="N77">
-        <v>82.65000000000001</v>
+        <v>58.14</v>
       </c>
       <c r="O77">
-        <v>69.84</v>
+        <v>37.63</v>
       </c>
       <c r="P77">
-        <v>50.34</v>
+        <v>59</v>
       </c>
       <c r="Q77">
-        <v>18.85</v>
+        <v>12.07</v>
       </c>
       <c r="R77">
-        <v>2806.5</v>
+        <v>1495.41</v>
       </c>
       <c r="S77">
-        <v>0.48</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -5143,13 +5143,13 @@
         <v>23</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F78">
         <v>34.74</v>
@@ -5199,58 +5199,58 @@
         <v>6</v>
       </c>
       <c r="B79">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F79">
-        <v>34.49</v>
+        <v>78.44</v>
       </c>
       <c r="G79">
-        <v>28.48</v>
+        <v>39.04</v>
       </c>
       <c r="H79">
-        <v>18.44</v>
+        <v>31.32</v>
       </c>
       <c r="I79">
-        <v>23.5</v>
+        <v>28.93</v>
       </c>
       <c r="J79">
-        <v>57.31</v>
+        <v>39.63</v>
       </c>
       <c r="K79">
-        <v>14.27</v>
+        <v>22.79</v>
       </c>
       <c r="L79">
-        <v>5052.62</v>
+        <v>5261.81</v>
       </c>
       <c r="M79">
-        <v>14623.31</v>
+        <v>40842.47</v>
       </c>
       <c r="N79">
-        <v>58.14</v>
+        <v>86.93000000000001</v>
       </c>
       <c r="O79">
-        <v>37.63</v>
+        <v>36.65</v>
       </c>
       <c r="P79">
-        <v>59</v>
+        <v>56.97</v>
       </c>
       <c r="Q79">
-        <v>12.07</v>
+        <v>34.97</v>
       </c>
       <c r="R79">
-        <v>1495.41</v>
+        <v>4921.68</v>
       </c>
       <c r="S79">
-        <v>0.27</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -5258,58 +5258,58 @@
         <v>6</v>
       </c>
       <c r="B80">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>78.44</v>
+        <v>17.89</v>
       </c>
       <c r="G80">
-        <v>39.04</v>
+        <v>50.27</v>
       </c>
       <c r="H80">
-        <v>31.32</v>
+        <v>6.51</v>
       </c>
       <c r="I80">
-        <v>28.93</v>
+        <v>30.02</v>
       </c>
       <c r="J80">
-        <v>39.63</v>
+        <v>32.28</v>
       </c>
       <c r="K80">
-        <v>22.79</v>
+        <v>26.84</v>
       </c>
       <c r="L80">
-        <v>5261.81</v>
+        <v>2864.95</v>
       </c>
       <c r="M80">
-        <v>40842.47</v>
+        <v>40468.38</v>
       </c>
       <c r="N80">
-        <v>86.93000000000001</v>
+        <v>62.71</v>
       </c>
       <c r="O80">
-        <v>36.65</v>
+        <v>58.22</v>
       </c>
       <c r="P80">
-        <v>56.97</v>
+        <v>50.87</v>
       </c>
       <c r="Q80">
-        <v>34.97</v>
+        <v>37.83</v>
       </c>
       <c r="R80">
-        <v>4921.68</v>
+        <v>983.8200000000001</v>
       </c>
       <c r="S80">
-        <v>0.48</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -5320,31 +5320,31 @@
         <v>25</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F81">
+        <v>61</v>
+      </c>
+      <c r="G81">
+        <v>59.85</v>
+      </c>
+      <c r="H81">
+        <v>41.04</v>
+      </c>
+      <c r="I81">
+        <v>77.48</v>
+      </c>
+      <c r="J81">
+        <v>70.17</v>
+      </c>
+      <c r="K81">
         <v>30.75</v>
-      </c>
-      <c r="G81">
-        <v>15.2</v>
-      </c>
-      <c r="H81">
-        <v>45.44</v>
-      </c>
-      <c r="I81">
-        <v>16.62</v>
-      </c>
-      <c r="J81">
-        <v>61.68</v>
-      </c>
-      <c r="K81">
-        <v>14</v>
       </c>
       <c r="L81">
         <v>2864.95</v>
@@ -5379,31 +5379,31 @@
         <v>25</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82">
-        <v>5.84</v>
+        <v>67.76000000000001</v>
       </c>
       <c r="G82">
-        <v>52.18</v>
+        <v>55.3</v>
       </c>
       <c r="H82">
-        <v>36.8</v>
+        <v>3.21</v>
       </c>
       <c r="I82">
-        <v>60.81</v>
+        <v>11.15</v>
       </c>
       <c r="J82">
-        <v>43.6</v>
+        <v>58.79</v>
       </c>
       <c r="K82">
-        <v>14.06</v>
+        <v>45.09</v>
       </c>
       <c r="L82">
         <v>2864.95</v>
@@ -5438,13 +5438,13 @@
         <v>25</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83">
         <v>3</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F83">
         <v>82.34999999999999</v>
@@ -5497,31 +5497,31 @@
         <v>25</v>
       </c>
       <c r="C84">
+        <v>6</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
         <v>7</v>
       </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="E84">
-        <v>5</v>
-      </c>
       <c r="F84">
-        <v>61</v>
+        <v>30.75</v>
       </c>
       <c r="G84">
-        <v>59.85</v>
+        <v>15.2</v>
       </c>
       <c r="H84">
-        <v>41.04</v>
+        <v>45.44</v>
       </c>
       <c r="I84">
-        <v>77.48</v>
+        <v>16.62</v>
       </c>
       <c r="J84">
-        <v>70.17</v>
+        <v>61.68</v>
       </c>
       <c r="K84">
-        <v>30.75</v>
+        <v>14</v>
       </c>
       <c r="L84">
         <v>2864.95</v>
@@ -5556,31 +5556,31 @@
         <v>25</v>
       </c>
       <c r="C85">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F85">
-        <v>67.76000000000001</v>
+        <v>5.84</v>
       </c>
       <c r="G85">
-        <v>55.3</v>
+        <v>52.18</v>
       </c>
       <c r="H85">
-        <v>3.21</v>
+        <v>36.8</v>
       </c>
       <c r="I85">
-        <v>11.15</v>
+        <v>60.81</v>
       </c>
       <c r="J85">
-        <v>58.79</v>
+        <v>43.6</v>
       </c>
       <c r="K85">
-        <v>45.09</v>
+        <v>14.06</v>
       </c>
       <c r="L85">
         <v>2864.95</v>
@@ -5612,58 +5612,58 @@
         <v>6</v>
       </c>
       <c r="B86">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
         <v>2</v>
       </c>
-      <c r="E86">
-        <v>4</v>
-      </c>
       <c r="F86">
-        <v>17.89</v>
+        <v>8.5</v>
       </c>
       <c r="G86">
-        <v>50.27</v>
+        <v>16.79</v>
       </c>
       <c r="H86">
-        <v>6.51</v>
+        <v>28.43</v>
       </c>
       <c r="I86">
-        <v>30.02</v>
+        <v>65.47</v>
       </c>
       <c r="J86">
-        <v>32.28</v>
+        <v>59.92</v>
       </c>
       <c r="K86">
-        <v>26.84</v>
+        <v>16.4</v>
       </c>
       <c r="L86">
-        <v>2864.95</v>
+        <v>-1</v>
       </c>
       <c r="M86">
-        <v>40468.38</v>
+        <v>-1</v>
       </c>
       <c r="N86">
-        <v>62.71</v>
+        <v>-1</v>
       </c>
       <c r="O86">
-        <v>58.22</v>
+        <v>-1</v>
       </c>
       <c r="P86">
-        <v>50.87</v>
+        <v>-1</v>
       </c>
       <c r="Q86">
-        <v>37.83</v>
+        <v>-1</v>
       </c>
       <c r="R86">
-        <v>983.8200000000001</v>
+        <v>-1</v>
       </c>
       <c r="S86">
-        <v>0.33</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -5674,31 +5674,31 @@
         <v>26</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E87">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F87">
-        <v>92.91</v>
+        <v>25.34</v>
       </c>
       <c r="G87">
-        <v>29.45</v>
+        <v>32.74</v>
       </c>
       <c r="H87">
-        <v>42.89</v>
+        <v>9.41</v>
       </c>
       <c r="I87">
-        <v>14.73</v>
+        <v>33.42</v>
       </c>
       <c r="J87">
-        <v>73.81999999999999</v>
+        <v>70.72</v>
       </c>
       <c r="K87">
-        <v>17.82</v>
+        <v>19.93</v>
       </c>
       <c r="L87">
         <v>-1</v>
@@ -5733,31 +5733,31 @@
         <v>26</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88">
-        <v>8.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="G88">
-        <v>16.79</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="H88">
-        <v>28.43</v>
+        <v>9.32</v>
       </c>
       <c r="I88">
-        <v>65.47</v>
+        <v>57.89</v>
       </c>
       <c r="J88">
-        <v>59.92</v>
+        <v>78.14</v>
       </c>
       <c r="K88">
-        <v>16.4</v>
+        <v>41.3</v>
       </c>
       <c r="L88">
         <v>-1</v>
@@ -5792,31 +5792,31 @@
         <v>26</v>
       </c>
       <c r="C89">
+        <v>7</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89">
         <v>5</v>
       </c>
-      <c r="D89">
-        <v>3</v>
-      </c>
-      <c r="E89">
-        <v>2</v>
-      </c>
       <c r="F89">
-        <v>25.34</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="G89">
-        <v>32.74</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="H89">
-        <v>9.41</v>
+        <v>3.82</v>
       </c>
       <c r="I89">
-        <v>33.42</v>
+        <v>0.73</v>
       </c>
       <c r="J89">
-        <v>70.72</v>
+        <v>70.39</v>
       </c>
       <c r="K89">
-        <v>19.93</v>
+        <v>45.49</v>
       </c>
       <c r="L89">
         <v>-1</v>
@@ -5851,31 +5851,31 @@
         <v>26</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90">
         <v>5</v>
       </c>
       <c r="F90">
-        <v>68.40000000000001</v>
+        <v>4.31</v>
       </c>
       <c r="G90">
-        <v>68.20999999999999</v>
+        <v>33.2</v>
       </c>
       <c r="H90">
-        <v>9.32</v>
+        <v>14.77</v>
       </c>
       <c r="I90">
-        <v>57.89</v>
+        <v>66.25</v>
       </c>
       <c r="J90">
-        <v>78.14</v>
+        <v>49</v>
       </c>
       <c r="K90">
-        <v>41.3</v>
+        <v>16.85</v>
       </c>
       <c r="L90">
         <v>-1</v>
@@ -5910,31 +5910,31 @@
         <v>26</v>
       </c>
       <c r="C91">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D91">
         <v>2</v>
       </c>
       <c r="E91">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F91">
-        <v>4.31</v>
+        <v>80.64</v>
       </c>
       <c r="G91">
-        <v>33.2</v>
+        <v>67.08</v>
       </c>
       <c r="H91">
-        <v>14.77</v>
+        <v>26.79</v>
       </c>
       <c r="I91">
-        <v>66.25</v>
+        <v>15.7</v>
       </c>
       <c r="J91">
-        <v>49</v>
+        <v>53.86</v>
       </c>
       <c r="K91">
-        <v>16.85</v>
+        <v>46.63</v>
       </c>
       <c r="L91">
         <v>-1</v>
@@ -5969,31 +5969,31 @@
         <v>26</v>
       </c>
       <c r="C92">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D92">
         <v>3</v>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92">
-        <v>78.98999999999999</v>
+        <v>72.37</v>
       </c>
       <c r="G92">
-        <v>76.34999999999999</v>
+        <v>46.62</v>
       </c>
       <c r="H92">
-        <v>3.82</v>
+        <v>22.03</v>
       </c>
       <c r="I92">
-        <v>0.73</v>
+        <v>31.66</v>
       </c>
       <c r="J92">
-        <v>70.39</v>
+        <v>46.02</v>
       </c>
       <c r="K92">
-        <v>45.49</v>
+        <v>20.08</v>
       </c>
       <c r="L92">
         <v>-1</v>
@@ -6028,31 +6028,31 @@
         <v>26</v>
       </c>
       <c r="C93">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93">
-        <v>80.64</v>
+        <v>92.91</v>
       </c>
       <c r="G93">
-        <v>67.08</v>
+        <v>29.45</v>
       </c>
       <c r="H93">
-        <v>26.79</v>
+        <v>42.89</v>
       </c>
       <c r="I93">
-        <v>15.7</v>
+        <v>14.73</v>
       </c>
       <c r="J93">
-        <v>53.86</v>
+        <v>73.81999999999999</v>
       </c>
       <c r="K93">
-        <v>46.63</v>
+        <v>17.82</v>
       </c>
       <c r="L93">
         <v>-1</v>
@@ -6081,10 +6081,10 @@
     </row>
     <row r="94" spans="1:19">
       <c r="A94">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B94">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C94">
         <v>6</v>
@@ -6093,49 +6093,49 @@
         <v>3</v>
       </c>
       <c r="E94">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>72.37</v>
+        <v>4.19</v>
       </c>
       <c r="G94">
-        <v>46.62</v>
+        <v>34.27</v>
       </c>
       <c r="H94">
-        <v>22.03</v>
+        <v>28.58</v>
       </c>
       <c r="I94">
-        <v>31.66</v>
+        <v>23.4</v>
       </c>
       <c r="J94">
-        <v>46.02</v>
+        <v>87.03</v>
       </c>
       <c r="K94">
-        <v>20.08</v>
+        <v>39.95</v>
       </c>
       <c r="L94">
-        <v>-1</v>
+        <v>6375.45</v>
       </c>
       <c r="M94">
-        <v>-1</v>
+        <v>39298.85</v>
       </c>
       <c r="N94">
-        <v>-1</v>
+        <v>22.41</v>
       </c>
       <c r="O94">
-        <v>-1</v>
+        <v>71.56999999999999</v>
       </c>
       <c r="P94">
-        <v>-1</v>
+        <v>52.18</v>
       </c>
       <c r="Q94">
-        <v>-1</v>
+        <v>37.75</v>
       </c>
       <c r="R94">
-        <v>-1</v>
+        <v>2865.1</v>
       </c>
       <c r="S94">
-        <v>-1</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -6146,31 +6146,31 @@
         <v>21</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D95">
         <v>3</v>
       </c>
       <c r="E95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>4.19</v>
+        <v>46.6</v>
       </c>
       <c r="G95">
-        <v>34.27</v>
+        <v>19.03</v>
       </c>
       <c r="H95">
-        <v>28.58</v>
+        <v>31.81</v>
       </c>
       <c r="I95">
-        <v>23.4</v>
+        <v>47.63</v>
       </c>
       <c r="J95">
-        <v>87.03</v>
+        <v>78.84999999999999</v>
       </c>
       <c r="K95">
-        <v>39.95</v>
+        <v>19.08</v>
       </c>
       <c r="L95">
         <v>6375.45</v>
@@ -6202,58 +6202,58 @@
         <v>7</v>
       </c>
       <c r="B96">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C96">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D96">
         <v>3</v>
       </c>
       <c r="E96">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F96">
-        <v>46.6</v>
+        <v>56.66</v>
       </c>
       <c r="G96">
-        <v>19.03</v>
+        <v>76.22</v>
       </c>
       <c r="H96">
-        <v>31.81</v>
+        <v>15.67</v>
       </c>
       <c r="I96">
-        <v>47.63</v>
+        <v>38.03</v>
       </c>
       <c r="J96">
-        <v>78.84999999999999</v>
+        <v>74.86</v>
       </c>
       <c r="K96">
-        <v>19.08</v>
+        <v>49.08</v>
       </c>
       <c r="L96">
-        <v>6375.45</v>
+        <v>6001.7</v>
       </c>
       <c r="M96">
-        <v>39298.85</v>
+        <v>36979.79</v>
       </c>
       <c r="N96">
-        <v>22.41</v>
+        <v>41.74</v>
       </c>
       <c r="O96">
-        <v>71.56999999999999</v>
+        <v>63.89</v>
       </c>
       <c r="P96">
-        <v>52.18</v>
+        <v>49.84</v>
       </c>
       <c r="Q96">
-        <v>37.75</v>
+        <v>38.65</v>
       </c>
       <c r="R96">
-        <v>2865.1</v>
+        <v>2625.68</v>
       </c>
       <c r="S96">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -6264,31 +6264,31 @@
         <v>22</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F97">
-        <v>56.66</v>
+        <v>40.78</v>
       </c>
       <c r="G97">
-        <v>76.22</v>
+        <v>38.42</v>
       </c>
       <c r="H97">
-        <v>15.67</v>
+        <v>23.06</v>
       </c>
       <c r="I97">
-        <v>38.03</v>
+        <v>58.05</v>
       </c>
       <c r="J97">
-        <v>74.86</v>
+        <v>80.19</v>
       </c>
       <c r="K97">
-        <v>49.08</v>
+        <v>25.28</v>
       </c>
       <c r="L97">
         <v>6001.7</v>
@@ -6320,58 +6320,58 @@
         <v>7</v>
       </c>
       <c r="B98">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C98">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98">
         <v>6</v>
       </c>
       <c r="F98">
-        <v>40.78</v>
+        <v>24.98</v>
       </c>
       <c r="G98">
-        <v>38.42</v>
+        <v>62.98</v>
       </c>
       <c r="H98">
-        <v>23.06</v>
+        <v>27.51</v>
       </c>
       <c r="I98">
-        <v>58.05</v>
+        <v>27.51</v>
       </c>
       <c r="J98">
-        <v>80.19</v>
+        <v>55.93</v>
       </c>
       <c r="K98">
-        <v>25.28</v>
+        <v>30.55</v>
       </c>
       <c r="L98">
-        <v>6001.7</v>
+        <v>6003.64</v>
       </c>
       <c r="M98">
-        <v>36979.79</v>
+        <v>26213.89</v>
       </c>
       <c r="N98">
-        <v>41.74</v>
+        <v>19.78</v>
       </c>
       <c r="O98">
-        <v>63.89</v>
+        <v>43.35</v>
       </c>
       <c r="P98">
-        <v>49.84</v>
+        <v>46.24</v>
       </c>
       <c r="Q98">
-        <v>38.65</v>
+        <v>12.72</v>
       </c>
       <c r="R98">
-        <v>2625.68</v>
+        <v>912.01</v>
       </c>
       <c r="S98">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -6382,7 +6382,7 @@
         <v>23</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -6391,22 +6391,22 @@
         <v>5</v>
       </c>
       <c r="F99">
-        <v>3.7</v>
+        <v>80.92</v>
       </c>
       <c r="G99">
-        <v>20.14</v>
+        <v>46.79</v>
       </c>
       <c r="H99">
-        <v>20.68</v>
+        <v>15.36</v>
       </c>
       <c r="I99">
-        <v>52.01</v>
+        <v>49.09</v>
       </c>
       <c r="J99">
-        <v>81.94</v>
+        <v>33.05</v>
       </c>
       <c r="K99">
-        <v>43.92</v>
+        <v>32.61</v>
       </c>
       <c r="L99">
         <v>6003.64</v>
@@ -6441,31 +6441,31 @@
         <v>23</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F100">
-        <v>94.06</v>
+        <v>3.7</v>
       </c>
       <c r="G100">
-        <v>57.35</v>
+        <v>20.14</v>
       </c>
       <c r="H100">
-        <v>37.36</v>
+        <v>20.68</v>
       </c>
       <c r="I100">
-        <v>17.2</v>
+        <v>52.01</v>
       </c>
       <c r="J100">
-        <v>88.69</v>
+        <v>81.94</v>
       </c>
       <c r="K100">
-        <v>7.53</v>
+        <v>43.92</v>
       </c>
       <c r="L100">
         <v>6003.64</v>
@@ -6500,31 +6500,31 @@
         <v>23</v>
       </c>
       <c r="C101">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F101">
-        <v>24.98</v>
+        <v>94.06</v>
       </c>
       <c r="G101">
-        <v>62.98</v>
+        <v>57.35</v>
       </c>
       <c r="H101">
-        <v>27.51</v>
+        <v>37.36</v>
       </c>
       <c r="I101">
-        <v>27.51</v>
+        <v>17.2</v>
       </c>
       <c r="J101">
-        <v>55.93</v>
+        <v>88.69</v>
       </c>
       <c r="K101">
-        <v>30.55</v>
+        <v>7.53</v>
       </c>
       <c r="L101">
         <v>6003.64</v>
@@ -6559,31 +6559,31 @@
         <v>23</v>
       </c>
       <c r="C102">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>80.92</v>
+        <v>22.14</v>
       </c>
       <c r="G102">
-        <v>46.79</v>
+        <v>41.28</v>
       </c>
       <c r="H102">
-        <v>15.36</v>
+        <v>10.33</v>
       </c>
       <c r="I102">
-        <v>49.09</v>
+        <v>6.67</v>
       </c>
       <c r="J102">
-        <v>33.05</v>
+        <v>61.31</v>
       </c>
       <c r="K102">
-        <v>32.61</v>
+        <v>33.26</v>
       </c>
       <c r="L102">
         <v>6003.64</v>
@@ -6618,31 +6618,31 @@
         <v>23</v>
       </c>
       <c r="C103">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>22.14</v>
+        <v>49.95</v>
       </c>
       <c r="G103">
-        <v>41.28</v>
+        <v>28.6</v>
       </c>
       <c r="H103">
-        <v>10.33</v>
+        <v>40.02</v>
       </c>
       <c r="I103">
-        <v>6.67</v>
+        <v>32.2</v>
       </c>
       <c r="J103">
-        <v>61.31</v>
+        <v>51.58</v>
       </c>
       <c r="K103">
-        <v>33.26</v>
+        <v>29.9</v>
       </c>
       <c r="L103">
         <v>6003.64</v>
@@ -6674,58 +6674,58 @@
         <v>7</v>
       </c>
       <c r="B104">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C104">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>49.95</v>
+        <v>51.37</v>
       </c>
       <c r="G104">
-        <v>28.6</v>
+        <v>72.59</v>
       </c>
       <c r="H104">
-        <v>40.02</v>
+        <v>40.3</v>
       </c>
       <c r="I104">
-        <v>32.2</v>
+        <v>3.84</v>
       </c>
       <c r="J104">
-        <v>51.58</v>
+        <v>76.92</v>
       </c>
       <c r="K104">
-        <v>29.9</v>
+        <v>27.59</v>
       </c>
       <c r="L104">
-        <v>6003.64</v>
+        <v>3891.37</v>
       </c>
       <c r="M104">
-        <v>26213.89</v>
+        <v>32574.23</v>
       </c>
       <c r="N104">
-        <v>19.78</v>
+        <v>58.9</v>
       </c>
       <c r="O104">
-        <v>43.35</v>
+        <v>78.62</v>
       </c>
       <c r="P104">
-        <v>46.24</v>
+        <v>25.05</v>
       </c>
       <c r="Q104">
-        <v>12.72</v>
+        <v>34.82</v>
       </c>
       <c r="R104">
-        <v>912.01</v>
+        <v>3723.18</v>
       </c>
       <c r="S104">
-        <v>0.46</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -6736,31 +6736,31 @@
         <v>24</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E105">
         <v>4</v>
       </c>
       <c r="F105">
-        <v>72.40000000000001</v>
+        <v>5.08</v>
       </c>
       <c r="G105">
-        <v>71.56999999999999</v>
+        <v>12.86</v>
       </c>
       <c r="H105">
-        <v>18.28</v>
+        <v>18.5</v>
       </c>
       <c r="I105">
-        <v>49.83</v>
+        <v>20.65</v>
       </c>
       <c r="J105">
-        <v>42.97</v>
+        <v>38.35</v>
       </c>
       <c r="K105">
-        <v>28.45</v>
+        <v>5.25</v>
       </c>
       <c r="L105">
         <v>3891.37</v>
@@ -6795,31 +6795,31 @@
         <v>24</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>14.49</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="G106">
-        <v>27.61</v>
+        <v>71.56999999999999</v>
       </c>
       <c r="H106">
-        <v>35.67</v>
+        <v>18.28</v>
       </c>
       <c r="I106">
-        <v>18.49</v>
+        <v>49.83</v>
       </c>
       <c r="J106">
-        <v>30.12</v>
+        <v>42.97</v>
       </c>
       <c r="K106">
-        <v>42.23</v>
+        <v>28.45</v>
       </c>
       <c r="L106">
         <v>3891.37</v>
@@ -6854,31 +6854,31 @@
         <v>24</v>
       </c>
       <c r="C107">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>5.08</v>
+        <v>14.49</v>
       </c>
       <c r="G107">
-        <v>12.86</v>
+        <v>27.61</v>
       </c>
       <c r="H107">
-        <v>18.5</v>
+        <v>35.67</v>
       </c>
       <c r="I107">
-        <v>20.65</v>
+        <v>18.49</v>
       </c>
       <c r="J107">
-        <v>38.35</v>
+        <v>30.12</v>
       </c>
       <c r="K107">
-        <v>5.25</v>
+        <v>42.23</v>
       </c>
       <c r="L107">
         <v>3891.37</v>
@@ -6913,31 +6913,31 @@
         <v>24</v>
       </c>
       <c r="C108">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F108">
-        <v>51.37</v>
+        <v>7.24</v>
       </c>
       <c r="G108">
-        <v>72.59</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="H108">
-        <v>40.3</v>
+        <v>17.23</v>
       </c>
       <c r="I108">
-        <v>3.84</v>
+        <v>47.61</v>
       </c>
       <c r="J108">
-        <v>76.92</v>
+        <v>34.52</v>
       </c>
       <c r="K108">
-        <v>27.59</v>
+        <v>39.19</v>
       </c>
       <c r="L108">
         <v>3891.37</v>
@@ -6969,58 +6969,58 @@
         <v>7</v>
       </c>
       <c r="B109">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C109">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F109">
-        <v>7.24</v>
+        <v>14.83</v>
       </c>
       <c r="G109">
-        <v>78.56999999999999</v>
+        <v>88.16</v>
       </c>
       <c r="H109">
-        <v>17.23</v>
+        <v>2.86</v>
       </c>
       <c r="I109">
-        <v>47.61</v>
+        <v>26.45</v>
       </c>
       <c r="J109">
-        <v>34.52</v>
+        <v>59.28</v>
       </c>
       <c r="K109">
-        <v>39.19</v>
+        <v>20.74</v>
       </c>
       <c r="L109">
-        <v>3891.37</v>
+        <v>5910.11</v>
       </c>
       <c r="M109">
-        <v>32574.23</v>
+        <v>2231.57</v>
       </c>
       <c r="N109">
-        <v>58.9</v>
+        <v>44.28</v>
       </c>
       <c r="O109">
-        <v>78.62</v>
+        <v>40.63</v>
       </c>
       <c r="P109">
-        <v>25.05</v>
+        <v>26.4</v>
       </c>
       <c r="Q109">
-        <v>34.82</v>
+        <v>15.84</v>
       </c>
       <c r="R109">
-        <v>3723.18</v>
+        <v>4694.12</v>
       </c>
       <c r="S109">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -7031,13 +7031,13 @@
         <v>25</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D110">
         <v>3</v>
       </c>
       <c r="E110">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F110">
         <v>96.81</v>
@@ -7090,31 +7090,31 @@
         <v>25</v>
       </c>
       <c r="C111">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D111">
         <v>2</v>
       </c>
       <c r="E111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F111">
-        <v>14.83</v>
+        <v>17.97</v>
       </c>
       <c r="G111">
-        <v>88.16</v>
+        <v>82.72</v>
       </c>
       <c r="H111">
-        <v>2.86</v>
+        <v>23.56</v>
       </c>
       <c r="I111">
-        <v>26.45</v>
+        <v>50.08</v>
       </c>
       <c r="J111">
-        <v>59.28</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="K111">
-        <v>20.74</v>
+        <v>5.46</v>
       </c>
       <c r="L111">
         <v>5910.11</v>
@@ -7146,58 +7146,58 @@
         <v>7</v>
       </c>
       <c r="B112">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C112">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E112">
         <v>6</v>
       </c>
       <c r="F112">
-        <v>17.97</v>
+        <v>44.86</v>
       </c>
       <c r="G112">
-        <v>82.72</v>
+        <v>92.95999999999999</v>
       </c>
       <c r="H112">
-        <v>23.56</v>
+        <v>14.64</v>
       </c>
       <c r="I112">
-        <v>50.08</v>
+        <v>25.17</v>
       </c>
       <c r="J112">
-        <v>77.95999999999999</v>
+        <v>76.16</v>
       </c>
       <c r="K112">
-        <v>5.46</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="L112">
-        <v>5910.11</v>
+        <v>-1</v>
       </c>
       <c r="M112">
-        <v>2231.57</v>
+        <v>-1</v>
       </c>
       <c r="N112">
-        <v>44.28</v>
+        <v>-1</v>
       </c>
       <c r="O112">
-        <v>40.63</v>
+        <v>-1</v>
       </c>
       <c r="P112">
-        <v>26.4</v>
+        <v>-1</v>
       </c>
       <c r="Q112">
-        <v>15.84</v>
+        <v>-1</v>
       </c>
       <c r="R112">
-        <v>4694.12</v>
+        <v>-1</v>
       </c>
       <c r="S112">
-        <v>0.17</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -7208,31 +7208,31 @@
         <v>26</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D113">
         <v>1</v>
       </c>
       <c r="E113">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F113">
-        <v>44.86</v>
+        <v>2.25</v>
       </c>
       <c r="G113">
-        <v>92.95999999999999</v>
+        <v>35.91</v>
       </c>
       <c r="H113">
-        <v>14.64</v>
+        <v>48.37</v>
       </c>
       <c r="I113">
-        <v>25.17</v>
+        <v>71.06999999999999</v>
       </c>
       <c r="J113">
-        <v>76.16</v>
+        <v>85.92</v>
       </c>
       <c r="K113">
-        <v>9.470000000000001</v>
+        <v>33.33</v>
       </c>
       <c r="L113">
         <v>-1</v>
@@ -7267,13 +7267,13 @@
         <v>26</v>
       </c>
       <c r="C114">
+        <v>7</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
         <v>5</v>
-      </c>
-      <c r="D114">
-        <v>2</v>
-      </c>
-      <c r="E114">
-        <v>3</v>
       </c>
       <c r="F114">
         <v>43.93</v>
@@ -7326,7 +7326,7 @@
         <v>26</v>
       </c>
       <c r="C115">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D115">
         <v>2</v>
@@ -7335,22 +7335,22 @@
         <v>5</v>
       </c>
       <c r="F115">
-        <v>2.25</v>
+        <v>90.28</v>
       </c>
       <c r="G115">
-        <v>35.91</v>
+        <v>91.67</v>
       </c>
       <c r="H115">
-        <v>48.37</v>
+        <v>49.65</v>
       </c>
       <c r="I115">
-        <v>71.06999999999999</v>
+        <v>26.79</v>
       </c>
       <c r="J115">
-        <v>85.92</v>
+        <v>38.75</v>
       </c>
       <c r="K115">
-        <v>33.33</v>
+        <v>20.54</v>
       </c>
       <c r="L115">
         <v>-1</v>
@@ -7379,61 +7379,61 @@
     </row>
     <row r="116" spans="1:19">
       <c r="A116">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B116">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C116">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E116">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F116">
-        <v>90.28</v>
+        <v>26.18</v>
       </c>
       <c r="G116">
-        <v>91.67</v>
+        <v>63.03</v>
       </c>
       <c r="H116">
-        <v>49.65</v>
+        <v>31.41</v>
       </c>
       <c r="I116">
-        <v>26.79</v>
+        <v>57.91</v>
       </c>
       <c r="J116">
-        <v>38.75</v>
+        <v>83.66</v>
       </c>
       <c r="K116">
-        <v>20.54</v>
+        <v>6.21</v>
       </c>
       <c r="L116">
-        <v>-1</v>
+        <v>4874.31</v>
       </c>
       <c r="M116">
-        <v>-1</v>
+        <v>1550.91</v>
       </c>
       <c r="N116">
-        <v>-1</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="O116">
-        <v>-1</v>
+        <v>61.89</v>
       </c>
       <c r="P116">
-        <v>-1</v>
+        <v>36.03</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>34.37</v>
       </c>
       <c r="R116">
-        <v>-1</v>
+        <v>190.57</v>
       </c>
       <c r="S116">
-        <v>-1</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -7450,25 +7450,25 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>50.7</v>
+        <v>20.18</v>
       </c>
       <c r="G117">
-        <v>50.34</v>
+        <v>88.23</v>
       </c>
       <c r="H117">
-        <v>1.04</v>
+        <v>17.85</v>
       </c>
       <c r="I117">
-        <v>0.58</v>
+        <v>10.99</v>
       </c>
       <c r="J117">
-        <v>37.36</v>
+        <v>32.96</v>
       </c>
       <c r="K117">
-        <v>28.87</v>
+        <v>32.23</v>
       </c>
       <c r="L117">
         <v>4874.31</v>
@@ -7503,31 +7503,31 @@
         <v>21</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D118">
         <v>3</v>
       </c>
       <c r="E118">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>26.18</v>
+        <v>64.56999999999999</v>
       </c>
       <c r="G118">
-        <v>63.03</v>
+        <v>70.59</v>
       </c>
       <c r="H118">
-        <v>31.41</v>
+        <v>23.88</v>
       </c>
       <c r="I118">
-        <v>57.91</v>
+        <v>69.34999999999999</v>
       </c>
       <c r="J118">
-        <v>83.66</v>
+        <v>89.88</v>
       </c>
       <c r="K118">
-        <v>6.21</v>
+        <v>4.47</v>
       </c>
       <c r="L118">
         <v>4874.31</v>
@@ -7562,31 +7562,31 @@
         <v>21</v>
       </c>
       <c r="C119">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F119">
-        <v>64.56999999999999</v>
+        <v>35.37</v>
       </c>
       <c r="G119">
-        <v>70.59</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="H119">
-        <v>23.88</v>
+        <v>37.69</v>
       </c>
       <c r="I119">
-        <v>69.34999999999999</v>
+        <v>49.79</v>
       </c>
       <c r="J119">
-        <v>89.88</v>
+        <v>35.56</v>
       </c>
       <c r="K119">
-        <v>4.47</v>
+        <v>47.38</v>
       </c>
       <c r="L119">
         <v>4874.31</v>
@@ -7621,31 +7621,31 @@
         <v>21</v>
       </c>
       <c r="C120">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D120">
         <v>2</v>
       </c>
       <c r="E120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F120">
-        <v>35.37</v>
+        <v>50.7</v>
       </c>
       <c r="G120">
-        <v>67.48999999999999</v>
+        <v>50.34</v>
       </c>
       <c r="H120">
-        <v>37.69</v>
+        <v>1.04</v>
       </c>
       <c r="I120">
-        <v>49.79</v>
+        <v>0.58</v>
       </c>
       <c r="J120">
-        <v>35.56</v>
+        <v>37.36</v>
       </c>
       <c r="K120">
-        <v>47.38</v>
+        <v>28.87</v>
       </c>
       <c r="L120">
         <v>4874.31</v>
@@ -7677,58 +7677,58 @@
         <v>9</v>
       </c>
       <c r="B121">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C121">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D121">
         <v>2</v>
       </c>
       <c r="E121">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F121">
-        <v>20.18</v>
+        <v>26.16</v>
       </c>
       <c r="G121">
-        <v>88.23</v>
+        <v>46.44</v>
       </c>
       <c r="H121">
-        <v>17.85</v>
+        <v>49.1</v>
       </c>
       <c r="I121">
-        <v>10.99</v>
+        <v>64.98</v>
       </c>
       <c r="J121">
-        <v>32.96</v>
+        <v>68.31999999999999</v>
       </c>
       <c r="K121">
-        <v>32.23</v>
+        <v>34.39</v>
       </c>
       <c r="L121">
-        <v>4874.31</v>
+        <v>7396.56</v>
       </c>
       <c r="M121">
-        <v>1550.91</v>
+        <v>24301.19</v>
       </c>
       <c r="N121">
-        <v>68.54000000000001</v>
+        <v>8.69</v>
       </c>
       <c r="O121">
-        <v>61.89</v>
+        <v>36.84</v>
       </c>
       <c r="P121">
-        <v>36.03</v>
+        <v>42.4</v>
       </c>
       <c r="Q121">
-        <v>34.37</v>
+        <v>38.91</v>
       </c>
       <c r="R121">
-        <v>190.57</v>
+        <v>4628.39</v>
       </c>
       <c r="S121">
-        <v>0.26</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -7739,7 +7739,7 @@
         <v>22</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -7748,22 +7748,22 @@
         <v>5</v>
       </c>
       <c r="F122">
-        <v>26.16</v>
+        <v>12.43</v>
       </c>
       <c r="G122">
-        <v>46.44</v>
+        <v>88.38</v>
       </c>
       <c r="H122">
-        <v>49.1</v>
+        <v>23.7</v>
       </c>
       <c r="I122">
-        <v>64.98</v>
+        <v>52.51</v>
       </c>
       <c r="J122">
-        <v>68.31999999999999</v>
+        <v>54.27</v>
       </c>
       <c r="K122">
-        <v>34.39</v>
+        <v>48.93</v>
       </c>
       <c r="L122">
         <v>7396.56</v>
@@ -7798,7 +7798,7 @@
         <v>22</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -7807,22 +7807,22 @@
         <v>3</v>
       </c>
       <c r="F123">
-        <v>12.43</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="G123">
-        <v>88.38</v>
+        <v>21.57</v>
       </c>
       <c r="H123">
-        <v>23.7</v>
+        <v>32.52</v>
       </c>
       <c r="I123">
-        <v>52.51</v>
+        <v>13.61</v>
       </c>
       <c r="J123">
-        <v>54.27</v>
+        <v>33.61</v>
       </c>
       <c r="K123">
-        <v>48.93</v>
+        <v>18.87</v>
       </c>
       <c r="L123">
         <v>7396.56</v>
@@ -7854,58 +7854,58 @@
         <v>9</v>
       </c>
       <c r="B124">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C124">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E124">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F124">
-        <v>77.01000000000001</v>
+        <v>28</v>
       </c>
       <c r="G124">
-        <v>21.57</v>
+        <v>11.99</v>
       </c>
       <c r="H124">
-        <v>32.52</v>
+        <v>21.71</v>
       </c>
       <c r="I124">
-        <v>13.61</v>
+        <v>5.14</v>
       </c>
       <c r="J124">
-        <v>33.61</v>
+        <v>41.71</v>
       </c>
       <c r="K124">
-        <v>18.87</v>
+        <v>5.19</v>
       </c>
       <c r="L124">
-        <v>7396.56</v>
+        <v>5950.77</v>
       </c>
       <c r="M124">
-        <v>24301.19</v>
+        <v>28056.18</v>
       </c>
       <c r="N124">
-        <v>8.69</v>
+        <v>21.86</v>
       </c>
       <c r="O124">
-        <v>36.84</v>
+        <v>34.18</v>
       </c>
       <c r="P124">
-        <v>42.4</v>
+        <v>26.26</v>
       </c>
       <c r="Q124">
-        <v>38.91</v>
+        <v>34.13</v>
       </c>
       <c r="R124">
-        <v>4628.39</v>
+        <v>422.71</v>
       </c>
       <c r="S124">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="125" spans="1:19">
@@ -7916,13 +7916,13 @@
         <v>23</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F125">
         <v>67.55</v>
@@ -7975,31 +7975,31 @@
         <v>23</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F126">
-        <v>28</v>
+        <v>16.63</v>
       </c>
       <c r="G126">
-        <v>11.99</v>
+        <v>73.89</v>
       </c>
       <c r="H126">
-        <v>21.71</v>
+        <v>47.25</v>
       </c>
       <c r="I126">
-        <v>5.14</v>
+        <v>68.91</v>
       </c>
       <c r="J126">
-        <v>41.71</v>
+        <v>34.4</v>
       </c>
       <c r="K126">
-        <v>5.19</v>
+        <v>27.19</v>
       </c>
       <c r="L126">
         <v>5950.77</v>
@@ -8034,31 +8034,31 @@
         <v>23</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E127">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F127">
-        <v>15.64</v>
+        <v>56.59</v>
       </c>
       <c r="G127">
-        <v>89.73999999999999</v>
+        <v>59.95999999999999</v>
       </c>
       <c r="H127">
-        <v>10.14</v>
+        <v>14.265</v>
       </c>
       <c r="I127">
-        <v>3.8</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="J127">
-        <v>42.99</v>
+        <v>66.375</v>
       </c>
       <c r="K127">
-        <v>32.23</v>
+        <v>22.395</v>
       </c>
       <c r="L127">
         <v>5950.77</v>
@@ -8090,58 +8090,58 @@
         <v>9</v>
       </c>
       <c r="B128">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C128">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F128">
-        <v>97.54000000000001</v>
+        <v>33.87</v>
       </c>
       <c r="G128">
-        <v>30.18</v>
+        <v>91.27</v>
       </c>
       <c r="H128">
-        <v>18.39</v>
+        <v>41.67</v>
       </c>
       <c r="I128">
-        <v>14.76</v>
+        <v>56.26</v>
       </c>
       <c r="J128">
-        <v>89.76000000000001</v>
+        <v>46.98</v>
       </c>
       <c r="K128">
-        <v>12.56</v>
+        <v>28.51</v>
       </c>
       <c r="L128">
-        <v>5950.77</v>
+        <v>5163.28</v>
       </c>
       <c r="M128">
-        <v>28056.18</v>
+        <v>8865.15</v>
       </c>
       <c r="N128">
-        <v>21.86</v>
+        <v>50.14</v>
       </c>
       <c r="O128">
-        <v>34.18</v>
+        <v>57.36</v>
       </c>
       <c r="P128">
-        <v>26.26</v>
+        <v>45.76</v>
       </c>
       <c r="Q128">
-        <v>34.13</v>
+        <v>13.89</v>
       </c>
       <c r="R128">
-        <v>422.71</v>
+        <v>633.14</v>
       </c>
       <c r="S128">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="129" spans="1:19">
@@ -8149,58 +8149,58 @@
         <v>9</v>
       </c>
       <c r="B129">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C129">
         <v>8</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E129">
         <v>6</v>
       </c>
       <c r="F129">
-        <v>16.63</v>
+        <v>75.53</v>
       </c>
       <c r="G129">
-        <v>73.89</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="H129">
-        <v>47.25</v>
+        <v>22.34</v>
       </c>
       <c r="I129">
-        <v>68.91</v>
+        <v>1.44</v>
       </c>
       <c r="J129">
-        <v>34.4</v>
+        <v>36.48</v>
       </c>
       <c r="K129">
-        <v>27.19</v>
+        <v>17.29</v>
       </c>
       <c r="L129">
-        <v>5950.77</v>
+        <v>5163.28</v>
       </c>
       <c r="M129">
-        <v>28056.18</v>
+        <v>8865.15</v>
       </c>
       <c r="N129">
-        <v>21.86</v>
+        <v>50.14</v>
       </c>
       <c r="O129">
-        <v>34.18</v>
+        <v>57.36</v>
       </c>
       <c r="P129">
-        <v>26.26</v>
+        <v>45.76</v>
       </c>
       <c r="Q129">
-        <v>34.13</v>
+        <v>13.89</v>
       </c>
       <c r="R129">
-        <v>422.71</v>
+        <v>633.14</v>
       </c>
       <c r="S129">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="130" spans="1:19">
@@ -8208,55 +8208,55 @@
         <v>9</v>
       </c>
       <c r="B130">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="E130">
         <v>4</v>
       </c>
-      <c r="D130">
-        <v>2</v>
-      </c>
-      <c r="E130">
-        <v>6</v>
-      </c>
       <c r="F130">
-        <v>33.87</v>
+        <v>71.06</v>
       </c>
       <c r="G130">
-        <v>91.27</v>
+        <v>82.54000000000001</v>
       </c>
       <c r="H130">
-        <v>41.67</v>
+        <v>44.65</v>
       </c>
       <c r="I130">
-        <v>56.26</v>
+        <v>28.93</v>
       </c>
       <c r="J130">
-        <v>46.98</v>
+        <v>33.51</v>
       </c>
       <c r="K130">
-        <v>28.51</v>
+        <v>49.28</v>
       </c>
       <c r="L130">
-        <v>5163.28</v>
+        <v>5197.89</v>
       </c>
       <c r="M130">
-        <v>8865.15</v>
+        <v>48168.38</v>
       </c>
       <c r="N130">
-        <v>50.14</v>
+        <v>15.12</v>
       </c>
       <c r="O130">
-        <v>57.36</v>
+        <v>49.44</v>
       </c>
       <c r="P130">
-        <v>45.76</v>
+        <v>46.42</v>
       </c>
       <c r="Q130">
-        <v>13.89</v>
+        <v>10.19</v>
       </c>
       <c r="R130">
-        <v>633.14</v>
+        <v>893.28</v>
       </c>
       <c r="S130">
         <v>0.47</v>
@@ -8267,55 +8267,55 @@
         <v>9</v>
       </c>
       <c r="B131">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C131">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F131">
-        <v>75.53</v>
+        <v>3.4</v>
       </c>
       <c r="G131">
-        <v>82.81999999999999</v>
+        <v>77.52</v>
       </c>
       <c r="H131">
-        <v>22.34</v>
+        <v>14.58</v>
       </c>
       <c r="I131">
-        <v>1.44</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="J131">
-        <v>36.48</v>
+        <v>31.46</v>
       </c>
       <c r="K131">
-        <v>17.29</v>
+        <v>41.11</v>
       </c>
       <c r="L131">
-        <v>5163.28</v>
+        <v>5197.89</v>
       </c>
       <c r="M131">
-        <v>8865.15</v>
+        <v>48168.38</v>
       </c>
       <c r="N131">
-        <v>50.14</v>
+        <v>15.12</v>
       </c>
       <c r="O131">
-        <v>57.36</v>
+        <v>49.44</v>
       </c>
       <c r="P131">
-        <v>45.76</v>
+        <v>46.42</v>
       </c>
       <c r="Q131">
-        <v>13.89</v>
+        <v>10.19</v>
       </c>
       <c r="R131">
-        <v>633.14</v>
+        <v>893.28</v>
       </c>
       <c r="S131">
         <v>0.47</v>
@@ -8326,7 +8326,7 @@
         <v>9</v>
       </c>
       <c r="B132">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C132">
         <v>3</v>
@@ -8338,46 +8338,46 @@
         <v>2</v>
       </c>
       <c r="F132">
-        <v>71.06</v>
+        <v>7</v>
       </c>
       <c r="G132">
-        <v>82.54000000000001</v>
+        <v>83.84999999999999</v>
       </c>
       <c r="H132">
-        <v>44.65</v>
+        <v>22.88</v>
       </c>
       <c r="I132">
-        <v>28.93</v>
+        <v>59.43</v>
       </c>
       <c r="J132">
-        <v>33.51</v>
+        <v>43.37</v>
       </c>
       <c r="K132">
-        <v>49.28</v>
+        <v>21.52</v>
       </c>
       <c r="L132">
-        <v>5197.89</v>
+        <v>-1</v>
       </c>
       <c r="M132">
-        <v>48168.38</v>
+        <v>-1</v>
       </c>
       <c r="N132">
-        <v>15.12</v>
+        <v>-1</v>
       </c>
       <c r="O132">
-        <v>49.44</v>
+        <v>-1</v>
       </c>
       <c r="P132">
-        <v>46.42</v>
+        <v>-1</v>
       </c>
       <c r="Q132">
-        <v>10.19</v>
+        <v>-1</v>
       </c>
       <c r="R132">
-        <v>893.28</v>
+        <v>-1</v>
       </c>
       <c r="S132">
-        <v>0.47</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:19">
@@ -8385,58 +8385,58 @@
         <v>9</v>
       </c>
       <c r="B133">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C133">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E133">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F133">
-        <v>3.4</v>
+        <v>3.98</v>
       </c>
       <c r="G133">
-        <v>77.52</v>
+        <v>28.27</v>
       </c>
       <c r="H133">
-        <v>14.58</v>
+        <v>3.19</v>
       </c>
       <c r="I133">
-        <v>67.90000000000001</v>
+        <v>6.12</v>
       </c>
       <c r="J133">
-        <v>31.46</v>
+        <v>54.77</v>
       </c>
       <c r="K133">
-        <v>41.11</v>
+        <v>4.4</v>
       </c>
       <c r="L133">
-        <v>5197.89</v>
+        <v>-1</v>
       </c>
       <c r="M133">
-        <v>48168.38</v>
+        <v>-1</v>
       </c>
       <c r="N133">
-        <v>15.12</v>
+        <v>-1</v>
       </c>
       <c r="O133">
-        <v>49.44</v>
+        <v>-1</v>
       </c>
       <c r="P133">
-        <v>46.42</v>
+        <v>-1</v>
       </c>
       <c r="Q133">
-        <v>10.19</v>
+        <v>-1</v>
       </c>
       <c r="R133">
-        <v>893.28</v>
+        <v>-1</v>
       </c>
       <c r="S133">
-        <v>0.47</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:19">
@@ -8447,31 +8447,31 @@
         <v>26</v>
       </c>
       <c r="C134">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D134">
         <v>3</v>
       </c>
       <c r="E134">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F134">
-        <v>3.98</v>
+        <v>49.04</v>
       </c>
       <c r="G134">
-        <v>28.27</v>
+        <v>64.87</v>
       </c>
       <c r="H134">
-        <v>3.19</v>
+        <v>36.31</v>
       </c>
       <c r="I134">
-        <v>6.12</v>
+        <v>38.16</v>
       </c>
       <c r="J134">
-        <v>54.77</v>
+        <v>78.14</v>
       </c>
       <c r="K134">
-        <v>4.4</v>
+        <v>20.54</v>
       </c>
       <c r="L134">
         <v>-1</v>
@@ -8500,120 +8500,120 @@
     </row>
     <row r="135" spans="1:19">
       <c r="A135">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B135">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C135">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E135">
         <v>7</v>
       </c>
       <c r="F135">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="G135">
-        <v>83.84999999999999</v>
+        <v>36.52</v>
       </c>
       <c r="H135">
-        <v>22.88</v>
+        <v>25.53</v>
       </c>
       <c r="I135">
-        <v>59.43</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="J135">
-        <v>43.37</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K135">
-        <v>21.52</v>
+        <v>29.93</v>
       </c>
       <c r="L135">
-        <v>-1</v>
+        <v>6089.53</v>
       </c>
       <c r="M135">
-        <v>-1</v>
+        <v>4058.45</v>
       </c>
       <c r="N135">
-        <v>-1</v>
+        <v>62.63</v>
       </c>
       <c r="O135">
-        <v>-1</v>
+        <v>35.8</v>
       </c>
       <c r="P135">
-        <v>-1</v>
+        <v>26.29</v>
       </c>
       <c r="Q135">
-        <v>-1</v>
+        <v>33.8</v>
       </c>
       <c r="R135">
-        <v>-1</v>
+        <v>3173.44</v>
       </c>
       <c r="S135">
-        <v>-1</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="136" spans="1:19">
       <c r="A136">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B136">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C136">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E136">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>49.04</v>
+        <v>23.67</v>
       </c>
       <c r="G136">
-        <v>64.87</v>
+        <v>27.5</v>
       </c>
       <c r="H136">
-        <v>36.31</v>
+        <v>2.21</v>
       </c>
       <c r="I136">
-        <v>38.16</v>
+        <v>56.52</v>
       </c>
       <c r="J136">
-        <v>78.14</v>
+        <v>36.75</v>
       </c>
       <c r="K136">
-        <v>20.54</v>
+        <v>12.56</v>
       </c>
       <c r="L136">
-        <v>-1</v>
+        <v>6089.53</v>
       </c>
       <c r="M136">
-        <v>-1</v>
+        <v>4058.45</v>
       </c>
       <c r="N136">
-        <v>-1</v>
+        <v>62.63</v>
       </c>
       <c r="O136">
-        <v>-1</v>
+        <v>35.8</v>
       </c>
       <c r="P136">
-        <v>-1</v>
+        <v>26.29</v>
       </c>
       <c r="Q136">
-        <v>-1</v>
+        <v>33.8</v>
       </c>
       <c r="R136">
-        <v>-1</v>
+        <v>3173.44</v>
       </c>
       <c r="S136">
-        <v>-1</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="137" spans="1:19">
@@ -8624,31 +8624,31 @@
         <v>21</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E137">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F137">
-        <v>23.67</v>
+        <v>73.78</v>
       </c>
       <c r="G137">
-        <v>27.5</v>
+        <v>26.12</v>
       </c>
       <c r="H137">
-        <v>2.21</v>
+        <v>21.51</v>
       </c>
       <c r="I137">
-        <v>56.52</v>
+        <v>22.63</v>
       </c>
       <c r="J137">
-        <v>36.75</v>
+        <v>44.56</v>
       </c>
       <c r="K137">
-        <v>12.56</v>
+        <v>3.46</v>
       </c>
       <c r="L137">
         <v>6089.53</v>
@@ -8680,58 +8680,58 @@
         <v>10</v>
       </c>
       <c r="B138">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C138">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E138">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F138">
-        <v>73.78</v>
+        <v>56.52</v>
       </c>
       <c r="G138">
-        <v>26.12</v>
+        <v>56.81</v>
       </c>
       <c r="H138">
-        <v>21.51</v>
+        <v>15.98</v>
       </c>
       <c r="I138">
-        <v>22.63</v>
+        <v>69.17</v>
       </c>
       <c r="J138">
-        <v>44.56</v>
+        <v>54.41</v>
       </c>
       <c r="K138">
-        <v>3.46</v>
+        <v>20.22</v>
       </c>
       <c r="L138">
-        <v>6089.53</v>
+        <v>5204.85</v>
       </c>
       <c r="M138">
-        <v>4058.45</v>
+        <v>22768.93</v>
       </c>
       <c r="N138">
-        <v>62.63</v>
+        <v>80.98999999999999</v>
       </c>
       <c r="O138">
-        <v>35.8</v>
+        <v>27.94</v>
       </c>
       <c r="P138">
-        <v>26.29</v>
+        <v>20.15</v>
       </c>
       <c r="Q138">
-        <v>33.8</v>
+        <v>11.55</v>
       </c>
       <c r="R138">
-        <v>3173.44</v>
+        <v>1300.29</v>
       </c>
       <c r="S138">
-        <v>0.38</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="139" spans="1:19">
@@ -8739,58 +8739,58 @@
         <v>10</v>
       </c>
       <c r="B139">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C139">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
         <v>2</v>
       </c>
-      <c r="E139">
-        <v>1</v>
-      </c>
       <c r="F139">
-        <v>4.2</v>
+        <v>7.92</v>
       </c>
       <c r="G139">
-        <v>36.52</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="H139">
-        <v>25.53</v>
+        <v>40.55</v>
       </c>
       <c r="I139">
-        <v>71.01000000000001</v>
+        <v>52.54</v>
       </c>
       <c r="J139">
-        <v>84.90000000000001</v>
+        <v>73.15000000000001</v>
       </c>
       <c r="K139">
-        <v>29.93</v>
+        <v>8.66</v>
       </c>
       <c r="L139">
-        <v>6089.53</v>
+        <v>5204.85</v>
       </c>
       <c r="M139">
-        <v>4058.45</v>
+        <v>22768.93</v>
       </c>
       <c r="N139">
-        <v>62.63</v>
+        <v>80.98999999999999</v>
       </c>
       <c r="O139">
-        <v>35.8</v>
+        <v>27.94</v>
       </c>
       <c r="P139">
-        <v>26.29</v>
+        <v>20.15</v>
       </c>
       <c r="Q139">
-        <v>33.8</v>
+        <v>11.55</v>
       </c>
       <c r="R139">
-        <v>3173.44</v>
+        <v>1300.29</v>
       </c>
       <c r="S139">
-        <v>0.38</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -8801,31 +8801,31 @@
         <v>22</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E140">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F140">
-        <v>7.92</v>
+        <v>47.72</v>
       </c>
       <c r="G140">
-        <v>67.18000000000001</v>
+        <v>66.95</v>
       </c>
       <c r="H140">
-        <v>40.55</v>
+        <v>0.86</v>
       </c>
       <c r="I140">
-        <v>52.54</v>
+        <v>27.58</v>
       </c>
       <c r="J140">
-        <v>73.15000000000001</v>
+        <v>68.14</v>
       </c>
       <c r="K140">
-        <v>8.66</v>
+        <v>8.09</v>
       </c>
       <c r="L140">
         <v>5204.85</v>
@@ -8860,31 +8860,31 @@
         <v>22</v>
       </c>
       <c r="C141">
+        <v>8</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
         <v>5</v>
       </c>
-      <c r="D141">
-        <v>3</v>
-      </c>
-      <c r="E141">
-        <v>6</v>
-      </c>
       <c r="F141">
-        <v>47.72</v>
+        <v>40.86</v>
       </c>
       <c r="G141">
-        <v>66.95</v>
+        <v>87.79000000000001</v>
       </c>
       <c r="H141">
-        <v>0.86</v>
+        <v>28.82</v>
       </c>
       <c r="I141">
-        <v>27.58</v>
+        <v>74.04000000000001</v>
       </c>
       <c r="J141">
-        <v>68.14</v>
+        <v>60.03</v>
       </c>
       <c r="K141">
-        <v>8.09</v>
+        <v>12.22</v>
       </c>
       <c r="L141">
         <v>5204.85</v>
@@ -8919,13 +8919,13 @@
         <v>22</v>
       </c>
       <c r="C142">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D142">
         <v>3</v>
       </c>
       <c r="E142">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F142">
         <v>98.77</v>
@@ -8978,31 +8978,31 @@
         <v>22</v>
       </c>
       <c r="C143">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D143">
         <v>1</v>
       </c>
       <c r="E143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>40.86</v>
+        <v>66.33</v>
       </c>
       <c r="G143">
-        <v>87.79000000000001</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="H143">
-        <v>28.82</v>
+        <v>24.27</v>
       </c>
       <c r="I143">
-        <v>74.04000000000001</v>
+        <v>34.95</v>
       </c>
       <c r="J143">
-        <v>60.03</v>
+        <v>47.81</v>
       </c>
       <c r="K143">
-        <v>12.22</v>
+        <v>47.4</v>
       </c>
       <c r="L143">
         <v>5204.85</v>
@@ -9034,58 +9034,58 @@
         <v>10</v>
       </c>
       <c r="B144">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C144">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E144">
         <v>5</v>
       </c>
       <c r="F144">
-        <v>56.52</v>
+        <v>96.13</v>
       </c>
       <c r="G144">
-        <v>56.81</v>
+        <v>81.06</v>
       </c>
       <c r="H144">
-        <v>15.98</v>
+        <v>10.66</v>
       </c>
       <c r="I144">
-        <v>69.17</v>
+        <v>45.6</v>
       </c>
       <c r="J144">
-        <v>54.41</v>
+        <v>54.47</v>
       </c>
       <c r="K144">
-        <v>20.22</v>
+        <v>22.76</v>
       </c>
       <c r="L144">
-        <v>5204.85</v>
+        <v>5107.08</v>
       </c>
       <c r="M144">
-        <v>22768.93</v>
+        <v>31532.93</v>
       </c>
       <c r="N144">
-        <v>80.98999999999999</v>
+        <v>35.07</v>
       </c>
       <c r="O144">
-        <v>27.94</v>
+        <v>69.64</v>
       </c>
       <c r="P144">
-        <v>20.15</v>
+        <v>40.67</v>
       </c>
       <c r="Q144">
-        <v>11.55</v>
+        <v>39.09</v>
       </c>
       <c r="R144">
-        <v>1300.29</v>
+        <v>4266.09</v>
       </c>
       <c r="S144">
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="145" spans="1:19">
@@ -9093,58 +9093,58 @@
         <v>10</v>
       </c>
       <c r="B145">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C145">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E145">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F145">
-        <v>66.33</v>
+        <v>42.7</v>
       </c>
       <c r="G145">
-        <v>83.40000000000001</v>
+        <v>93</v>
       </c>
       <c r="H145">
-        <v>24.27</v>
+        <v>12.92</v>
       </c>
       <c r="I145">
-        <v>34.95</v>
+        <v>55.65</v>
       </c>
       <c r="J145">
-        <v>47.81</v>
+        <v>47.34</v>
       </c>
       <c r="K145">
-        <v>47.4</v>
+        <v>21.16</v>
       </c>
       <c r="L145">
-        <v>5204.85</v>
+        <v>5107.08</v>
       </c>
       <c r="M145">
-        <v>22768.93</v>
+        <v>31532.93</v>
       </c>
       <c r="N145">
-        <v>80.98999999999999</v>
+        <v>35.07</v>
       </c>
       <c r="O145">
-        <v>27.94</v>
+        <v>69.64</v>
       </c>
       <c r="P145">
-        <v>20.15</v>
+        <v>40.67</v>
       </c>
       <c r="Q145">
-        <v>11.55</v>
+        <v>39.09</v>
       </c>
       <c r="R145">
-        <v>1300.29</v>
+        <v>4266.09</v>
       </c>
       <c r="S145">
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="146" spans="1:19">
@@ -9155,31 +9155,31 @@
         <v>23</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F146">
-        <v>96.13</v>
+        <v>26.16</v>
       </c>
       <c r="G146">
-        <v>81.06</v>
+        <v>44.61</v>
       </c>
       <c r="H146">
-        <v>10.66</v>
+        <v>49.34</v>
       </c>
       <c r="I146">
-        <v>45.6</v>
+        <v>58.53</v>
       </c>
       <c r="J146">
-        <v>54.47</v>
+        <v>32.96</v>
       </c>
       <c r="K146">
-        <v>22.76</v>
+        <v>43.24</v>
       </c>
       <c r="L146">
         <v>5107.08</v>
@@ -9211,58 +9211,58 @@
         <v>10</v>
       </c>
       <c r="B147">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C147">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F147">
-        <v>42.7</v>
+        <v>4.85</v>
       </c>
       <c r="G147">
-        <v>93</v>
+        <v>83.2</v>
       </c>
       <c r="H147">
-        <v>12.92</v>
+        <v>40.84</v>
       </c>
       <c r="I147">
-        <v>55.65</v>
+        <v>22.58</v>
       </c>
       <c r="J147">
-        <v>47.34</v>
+        <v>76.14</v>
       </c>
       <c r="K147">
-        <v>21.16</v>
+        <v>35.3</v>
       </c>
       <c r="L147">
-        <v>5107.08</v>
+        <v>5658.35</v>
       </c>
       <c r="M147">
-        <v>31532.93</v>
+        <v>26267.75</v>
       </c>
       <c r="N147">
-        <v>35.07</v>
+        <v>80.87</v>
       </c>
       <c r="O147">
-        <v>69.64</v>
+        <v>69.91</v>
       </c>
       <c r="P147">
-        <v>40.67</v>
+        <v>30.81</v>
       </c>
       <c r="Q147">
-        <v>39.09</v>
+        <v>34.89</v>
       </c>
       <c r="R147">
-        <v>4266.09</v>
+        <v>3669.19</v>
       </c>
       <c r="S147">
-        <v>0.33</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -9270,58 +9270,58 @@
         <v>10</v>
       </c>
       <c r="B148">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C148">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
         <v>2</v>
       </c>
-      <c r="E148">
-        <v>3</v>
-      </c>
       <c r="F148">
-        <v>26.16</v>
+        <v>91.59</v>
       </c>
       <c r="G148">
-        <v>44.61</v>
+        <v>11.94</v>
       </c>
       <c r="H148">
-        <v>49.34</v>
+        <v>26.28</v>
       </c>
       <c r="I148">
-        <v>58.53</v>
+        <v>73.93000000000001</v>
       </c>
       <c r="J148">
-        <v>32.96</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="K148">
-        <v>43.24</v>
+        <v>29.3</v>
       </c>
       <c r="L148">
-        <v>5107.08</v>
+        <v>5658.35</v>
       </c>
       <c r="M148">
-        <v>31532.93</v>
+        <v>26267.75</v>
       </c>
       <c r="N148">
-        <v>35.07</v>
+        <v>80.87</v>
       </c>
       <c r="O148">
-        <v>69.64</v>
+        <v>69.91</v>
       </c>
       <c r="P148">
-        <v>40.67</v>
+        <v>30.81</v>
       </c>
       <c r="Q148">
-        <v>39.09</v>
+        <v>34.89</v>
       </c>
       <c r="R148">
-        <v>4266.09</v>
+        <v>3669.19</v>
       </c>
       <c r="S148">
-        <v>0.33</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="149" spans="1:19">
@@ -9329,10 +9329,10 @@
         <v>10</v>
       </c>
       <c r="B149">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C149">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D149">
         <v>2</v>
@@ -9341,46 +9341,46 @@
         <v>7</v>
       </c>
       <c r="F149">
-        <v>91.59</v>
+        <v>44.26</v>
       </c>
       <c r="G149">
-        <v>11.94</v>
+        <v>32</v>
       </c>
       <c r="H149">
-        <v>26.28</v>
+        <v>0.09</v>
       </c>
       <c r="I149">
-        <v>73.93000000000001</v>
+        <v>40.67</v>
       </c>
       <c r="J149">
-        <v>65.79000000000001</v>
+        <v>60.99</v>
       </c>
       <c r="K149">
-        <v>29.3</v>
+        <v>22.31</v>
       </c>
       <c r="L149">
-        <v>5658.35</v>
+        <v>4427.15</v>
       </c>
       <c r="M149">
-        <v>26267.75</v>
+        <v>1846.81</v>
       </c>
       <c r="N149">
-        <v>80.87</v>
+        <v>46.38</v>
       </c>
       <c r="O149">
-        <v>69.91</v>
+        <v>16.13</v>
       </c>
       <c r="P149">
-        <v>30.81</v>
+        <v>50.3</v>
       </c>
       <c r="Q149">
-        <v>34.89</v>
+        <v>23.51</v>
       </c>
       <c r="R149">
-        <v>3669.19</v>
+        <v>3221.04</v>
       </c>
       <c r="S149">
-        <v>0.16</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="150" spans="1:19">
@@ -9388,58 +9388,58 @@
         <v>10</v>
       </c>
       <c r="B150">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C150">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F150">
-        <v>4.85</v>
+        <v>42.81</v>
       </c>
       <c r="G150">
-        <v>83.2</v>
+        <v>45.3</v>
       </c>
       <c r="H150">
-        <v>40.84</v>
+        <v>3.03</v>
       </c>
       <c r="I150">
-        <v>22.58</v>
+        <v>24.96</v>
       </c>
       <c r="J150">
-        <v>76.14</v>
+        <v>66.28</v>
       </c>
       <c r="K150">
-        <v>35.3</v>
+        <v>10.51</v>
       </c>
       <c r="L150">
-        <v>5658.35</v>
+        <v>-1</v>
       </c>
       <c r="M150">
-        <v>26267.75</v>
+        <v>-1</v>
       </c>
       <c r="N150">
-        <v>80.87</v>
+        <v>-1</v>
       </c>
       <c r="O150">
-        <v>69.91</v>
+        <v>-1</v>
       </c>
       <c r="P150">
-        <v>30.81</v>
+        <v>-1</v>
       </c>
       <c r="Q150">
-        <v>34.89</v>
+        <v>-1</v>
       </c>
       <c r="R150">
-        <v>3669.19</v>
+        <v>-1</v>
       </c>
       <c r="S150">
-        <v>0.16</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:19">
@@ -9447,58 +9447,58 @@
         <v>10</v>
       </c>
       <c r="B151">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C151">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F151">
-        <v>44.26</v>
+        <v>33.14</v>
       </c>
       <c r="G151">
-        <v>32</v>
+        <v>29.49</v>
       </c>
       <c r="H151">
-        <v>0.09</v>
+        <v>13.89</v>
       </c>
       <c r="I151">
-        <v>40.67</v>
+        <v>4.19</v>
       </c>
       <c r="J151">
-        <v>60.99</v>
+        <v>53.68</v>
       </c>
       <c r="K151">
-        <v>22.31</v>
+        <v>43.36</v>
       </c>
       <c r="L151">
-        <v>4427.15</v>
+        <v>-1</v>
       </c>
       <c r="M151">
-        <v>1846.81</v>
+        <v>-1</v>
       </c>
       <c r="N151">
-        <v>46.38</v>
+        <v>-1</v>
       </c>
       <c r="O151">
-        <v>16.13</v>
+        <v>-1</v>
       </c>
       <c r="P151">
-        <v>50.3</v>
+        <v>-1</v>
       </c>
       <c r="Q151">
-        <v>23.51</v>
+        <v>-1</v>
       </c>
       <c r="R151">
-        <v>3221.04</v>
+        <v>-1</v>
       </c>
       <c r="S151">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -9509,31 +9509,31 @@
         <v>26</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F152">
-        <v>75.51000000000001</v>
+        <v>50.19</v>
       </c>
       <c r="G152">
-        <v>33.23</v>
+        <v>49.71</v>
       </c>
       <c r="H152">
-        <v>12.61</v>
+        <v>14.09</v>
       </c>
       <c r="I152">
-        <v>63.58</v>
+        <v>12.41</v>
       </c>
       <c r="J152">
-        <v>48.51</v>
+        <v>57.05</v>
       </c>
       <c r="K152">
-        <v>4.66</v>
+        <v>5.76</v>
       </c>
       <c r="L152">
         <v>-1</v>
@@ -9568,31 +9568,31 @@
         <v>26</v>
       </c>
       <c r="C153">
+        <v>6</v>
+      </c>
+      <c r="D153">
+        <v>3</v>
+      </c>
+      <c r="E153">
         <v>4</v>
       </c>
-      <c r="D153">
-        <v>2</v>
-      </c>
-      <c r="E153">
-        <v>3</v>
-      </c>
       <c r="F153">
-        <v>50.19</v>
+        <v>75.51000000000001</v>
       </c>
       <c r="G153">
-        <v>49.71</v>
+        <v>33.23</v>
       </c>
       <c r="H153">
-        <v>14.09</v>
+        <v>12.61</v>
       </c>
       <c r="I153">
-        <v>12.41</v>
+        <v>63.58</v>
       </c>
       <c r="J153">
-        <v>57.05</v>
+        <v>48.51</v>
       </c>
       <c r="K153">
-        <v>5.76</v>
+        <v>4.66</v>
       </c>
       <c r="L153">
         <v>-1</v>
@@ -9627,31 +9627,31 @@
         <v>26</v>
       </c>
       <c r="C154">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E154">
         <v>1</v>
       </c>
       <c r="F154">
-        <v>33.14</v>
+        <v>1.04</v>
       </c>
       <c r="G154">
-        <v>29.49</v>
+        <v>38.21</v>
       </c>
       <c r="H154">
-        <v>13.89</v>
+        <v>36.85</v>
       </c>
       <c r="I154">
-        <v>4.19</v>
+        <v>8.52</v>
       </c>
       <c r="J154">
-        <v>53.68</v>
+        <v>39.31</v>
       </c>
       <c r="K154">
-        <v>43.36</v>
+        <v>11.84</v>
       </c>
       <c r="L154">
         <v>-1</v>
@@ -9686,13 +9686,13 @@
         <v>26</v>
       </c>
       <c r="C155">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E155">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F155">
         <v>38.87</v>
@@ -9739,37 +9739,37 @@
     </row>
     <row r="156" spans="1:19">
       <c r="A156">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B156">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C156">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F156">
-        <v>1.04</v>
+        <v>20.37</v>
       </c>
       <c r="G156">
-        <v>38.21</v>
+        <v>79.59</v>
       </c>
       <c r="H156">
-        <v>36.85</v>
+        <v>39.06</v>
       </c>
       <c r="I156">
-        <v>8.52</v>
+        <v>44.06</v>
       </c>
       <c r="J156">
-        <v>39.31</v>
+        <v>45.04</v>
       </c>
       <c r="K156">
-        <v>11.84</v>
+        <v>14.03</v>
       </c>
       <c r="L156">
         <v>-1</v>
@@ -9798,37 +9798,37 @@
     </row>
     <row r="157" spans="1:19">
       <c r="A157">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B157">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C157">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D157">
         <v>2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F157">
-        <v>42.81</v>
+        <v>77.53</v>
       </c>
       <c r="G157">
-        <v>45.3</v>
+        <v>71</v>
       </c>
       <c r="H157">
-        <v>3.03</v>
+        <v>17.41</v>
       </c>
       <c r="I157">
-        <v>24.96</v>
+        <v>12.56</v>
       </c>
       <c r="J157">
-        <v>66.28</v>
+        <v>56.93</v>
       </c>
       <c r="K157">
-        <v>10.51</v>
+        <v>38.36</v>
       </c>
       <c r="L157">
         <v>-1</v>
@@ -9863,31 +9863,31 @@
         <v>21</v>
       </c>
       <c r="C158">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F158">
-        <v>82.97</v>
+        <v>41.06</v>
       </c>
       <c r="G158">
-        <v>30.94</v>
+        <v>55.19</v>
       </c>
       <c r="H158">
-        <v>37.08</v>
+        <v>29.26</v>
       </c>
       <c r="I158">
-        <v>60.61</v>
+        <v>51.9</v>
       </c>
       <c r="J158">
-        <v>85.09999999999999</v>
+        <v>50.12</v>
       </c>
       <c r="K158">
-        <v>38.38</v>
+        <v>46.08</v>
       </c>
       <c r="L158">
         <v>-1</v>
@@ -9922,31 +9922,31 @@
         <v>21</v>
       </c>
       <c r="C159">
+        <v>6</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159">
         <v>5</v>
       </c>
-      <c r="D159">
-        <v>3</v>
-      </c>
-      <c r="E159">
-        <v>1</v>
-      </c>
       <c r="F159">
-        <v>76.22</v>
+        <v>1.61</v>
       </c>
       <c r="G159">
-        <v>12.97</v>
+        <v>20.47</v>
       </c>
       <c r="H159">
-        <v>33.17</v>
+        <v>2.43</v>
       </c>
       <c r="I159">
-        <v>75.91</v>
+        <v>31.04</v>
       </c>
       <c r="J159">
-        <v>64</v>
+        <v>35.8</v>
       </c>
       <c r="K159">
-        <v>35.4</v>
+        <v>24.29</v>
       </c>
       <c r="L159">
         <v>-1</v>
@@ -9981,31 +9981,31 @@
         <v>21</v>
       </c>
       <c r="C160">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D160">
         <v>2</v>
       </c>
       <c r="E160">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F160">
-        <v>42.47</v>
+        <v>41.41</v>
       </c>
       <c r="G160">
-        <v>43.12</v>
+        <v>64.43000000000001</v>
       </c>
       <c r="H160">
-        <v>17.26</v>
+        <v>38.39</v>
       </c>
       <c r="I160">
-        <v>26.12</v>
+        <v>19.26</v>
       </c>
       <c r="J160">
-        <v>65.56999999999999</v>
+        <v>45.13</v>
       </c>
       <c r="K160">
-        <v>10.43</v>
+        <v>6.24</v>
       </c>
       <c r="L160">
         <v>-1</v>
@@ -10040,31 +10040,31 @@
         <v>21</v>
       </c>
       <c r="C161">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E161">
         <v>3</v>
       </c>
       <c r="F161">
-        <v>20.97</v>
+        <v>50.91</v>
       </c>
       <c r="G161">
-        <v>10.53</v>
+        <v>93.16</v>
       </c>
       <c r="H161">
-        <v>23.64</v>
+        <v>36.57</v>
       </c>
       <c r="I161">
-        <v>34.27</v>
+        <v>35.31</v>
       </c>
       <c r="J161">
-        <v>58.52</v>
+        <v>65.04000000000001</v>
       </c>
       <c r="K161">
-        <v>33.37</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="L161">
         <v>-1</v>
@@ -10096,34 +10096,34 @@
         <v>11</v>
       </c>
       <c r="B162">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C162">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F162">
-        <v>57.4</v>
+        <v>45.62</v>
       </c>
       <c r="G162">
-        <v>18.91</v>
+        <v>78.95</v>
       </c>
       <c r="H162">
-        <v>40.53</v>
+        <v>17.45</v>
       </c>
       <c r="I162">
-        <v>49.28</v>
+        <v>1.05</v>
       </c>
       <c r="J162">
-        <v>68.44</v>
+        <v>41.77</v>
       </c>
       <c r="K162">
-        <v>12.68</v>
+        <v>21.41</v>
       </c>
       <c r="L162">
         <v>-1</v>
@@ -10158,31 +10158,31 @@
         <v>22</v>
       </c>
       <c r="C163">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E163">
         <v>5</v>
       </c>
       <c r="F163">
-        <v>38.18</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="G163">
-        <v>67.97</v>
+        <v>54.67</v>
       </c>
       <c r="H163">
-        <v>21.57</v>
+        <v>38.29</v>
       </c>
       <c r="I163">
-        <v>17.6</v>
+        <v>27.12</v>
       </c>
       <c r="J163">
-        <v>46.5</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="K163">
-        <v>20.88</v>
+        <v>32.81</v>
       </c>
       <c r="L163">
         <v>-1</v>
@@ -10217,31 +10217,31 @@
         <v>22</v>
       </c>
       <c r="C164">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F164">
-        <v>94.77</v>
+        <v>44.38</v>
       </c>
       <c r="G164">
-        <v>53.76</v>
+        <v>42.53</v>
       </c>
       <c r="H164">
-        <v>4.08</v>
+        <v>8.99</v>
       </c>
       <c r="I164">
-        <v>31.27</v>
+        <v>49.69</v>
       </c>
       <c r="J164">
-        <v>51.34</v>
+        <v>55.15</v>
       </c>
       <c r="K164">
-        <v>1.18</v>
+        <v>46.58</v>
       </c>
       <c r="L164">
         <v>-1</v>
@@ -10276,31 +10276,31 @@
         <v>22</v>
       </c>
       <c r="C165">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E165">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F165">
-        <v>7.7</v>
+        <v>86.47</v>
       </c>
       <c r="G165">
-        <v>44.99</v>
+        <v>25.62</v>
       </c>
       <c r="H165">
-        <v>18.15</v>
+        <v>47.64</v>
       </c>
       <c r="I165">
-        <v>52.91</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="J165">
-        <v>32.02</v>
+        <v>63.66</v>
       </c>
       <c r="K165">
-        <v>48.91</v>
+        <v>29.92</v>
       </c>
       <c r="L165">
         <v>-1</v>
@@ -10332,10 +10332,10 @@
         <v>11</v>
       </c>
       <c r="B166">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -10344,22 +10344,22 @@
         <v>1</v>
       </c>
       <c r="F166">
-        <v>33.09</v>
+        <v>93.76000000000001</v>
       </c>
       <c r="G166">
-        <v>44.29</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="H166">
-        <v>16.77</v>
+        <v>27.7</v>
       </c>
       <c r="I166">
-        <v>46.12</v>
+        <v>78.23999999999999</v>
       </c>
       <c r="J166">
-        <v>40.77</v>
+        <v>51.84</v>
       </c>
       <c r="K166">
-        <v>18.73</v>
+        <v>1.93</v>
       </c>
       <c r="L166">
         <v>-1</v>
@@ -10394,31 +10394,31 @@
         <v>23</v>
       </c>
       <c r="C167">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D167">
         <v>3</v>
       </c>
       <c r="E167">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F167">
-        <v>26.14</v>
+        <v>5.59</v>
       </c>
       <c r="G167">
-        <v>74.66</v>
+        <v>49.97</v>
       </c>
       <c r="H167">
-        <v>8.890000000000001</v>
+        <v>22.61</v>
       </c>
       <c r="I167">
-        <v>6.35</v>
+        <v>17.55</v>
       </c>
       <c r="J167">
-        <v>83.38</v>
+        <v>78.70999999999999</v>
       </c>
       <c r="K167">
-        <v>29.08</v>
+        <v>27.6</v>
       </c>
       <c r="L167">
         <v>-1</v>
@@ -10450,34 +10450,34 @@
         <v>11</v>
       </c>
       <c r="B168">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D168">
         <v>3</v>
       </c>
       <c r="E168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>24.03</v>
+        <v>18.93</v>
       </c>
       <c r="G168">
-        <v>75.42</v>
+        <v>43.32</v>
       </c>
       <c r="H168">
-        <v>28.82</v>
+        <v>22.13</v>
       </c>
       <c r="I168">
-        <v>42.27</v>
+        <v>61.74</v>
       </c>
       <c r="J168">
-        <v>74.84999999999999</v>
+        <v>69.97</v>
       </c>
       <c r="K168">
-        <v>11.26</v>
+        <v>13.22</v>
       </c>
       <c r="L168">
         <v>-1</v>
@@ -10512,31 +10512,31 @@
         <v>24</v>
       </c>
       <c r="C169">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D169">
         <v>3</v>
       </c>
       <c r="E169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F169">
-        <v>54.67</v>
+        <v>49.83</v>
       </c>
       <c r="G169">
-        <v>74.81</v>
+        <v>65.77</v>
       </c>
       <c r="H169">
-        <v>22.3</v>
+        <v>39.94</v>
       </c>
       <c r="I169">
-        <v>52.34</v>
+        <v>79.44</v>
       </c>
       <c r="J169">
-        <v>42.06</v>
+        <v>81.58</v>
       </c>
       <c r="K169">
-        <v>11.7</v>
+        <v>14.62</v>
       </c>
       <c r="L169">
         <v>-1</v>
@@ -10571,31 +10571,31 @@
         <v>24</v>
       </c>
       <c r="C170">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
         <v>2</v>
       </c>
-      <c r="E170">
-        <v>6</v>
-      </c>
       <c r="F170">
-        <v>19.68</v>
+        <v>5.34</v>
       </c>
       <c r="G170">
-        <v>83.73999999999999</v>
+        <v>88.41</v>
       </c>
       <c r="H170">
-        <v>33.55</v>
+        <v>36.07</v>
       </c>
       <c r="I170">
-        <v>1.75</v>
+        <v>13.78</v>
       </c>
       <c r="J170">
-        <v>70.63</v>
+        <v>58.85</v>
       </c>
       <c r="K170">
-        <v>46.78</v>
+        <v>35.86</v>
       </c>
       <c r="L170">
         <v>-1</v>
@@ -10627,34 +10627,34 @@
         <v>11</v>
       </c>
       <c r="B171">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E171">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F171">
-        <v>52.9</v>
+        <v>57.31</v>
       </c>
       <c r="G171">
-        <v>25.98</v>
+        <v>48.39</v>
       </c>
       <c r="H171">
-        <v>16.06</v>
+        <v>1.2</v>
       </c>
       <c r="I171">
-        <v>11.74</v>
+        <v>17.95</v>
       </c>
       <c r="J171">
-        <v>55.83</v>
+        <v>66.25</v>
       </c>
       <c r="K171">
-        <v>42.56</v>
+        <v>44.4</v>
       </c>
       <c r="L171">
         <v>-1</v>
@@ -10689,31 +10689,31 @@
         <v>25</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172">
         <v>2</v>
       </c>
       <c r="E172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F172">
-        <v>92.02</v>
+        <v>23.95</v>
       </c>
       <c r="G172">
-        <v>57.15</v>
+        <v>15.77</v>
       </c>
       <c r="H172">
-        <v>29.64</v>
+        <v>7.51</v>
       </c>
       <c r="I172">
-        <v>73.89</v>
+        <v>43.32</v>
       </c>
       <c r="J172">
-        <v>60.67</v>
+        <v>60.71</v>
       </c>
       <c r="K172">
-        <v>37.77</v>
+        <v>48.02</v>
       </c>
       <c r="L172">
         <v>-1</v>
@@ -10748,31 +10748,31 @@
         <v>25</v>
       </c>
       <c r="C173">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173">
         <v>5</v>
       </c>
       <c r="F173">
-        <v>95.37</v>
+        <v>94.47</v>
       </c>
       <c r="G173">
-        <v>26.63</v>
+        <v>73.22</v>
       </c>
       <c r="H173">
-        <v>49.58</v>
+        <v>26.42</v>
       </c>
       <c r="I173">
-        <v>1.75</v>
+        <v>28.86</v>
       </c>
       <c r="J173">
-        <v>53.62</v>
+        <v>30.17</v>
       </c>
       <c r="K173">
-        <v>48.53</v>
+        <v>48.56</v>
       </c>
       <c r="L173">
         <v>-1</v>
@@ -10804,34 +10804,34 @@
         <v>11</v>
       </c>
       <c r="B174">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C174">
+        <v>3</v>
+      </c>
+      <c r="D174">
         <v>2</v>
       </c>
-      <c r="D174">
-        <v>3</v>
-      </c>
       <c r="E174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F174">
-        <v>10.91</v>
+        <v>51.28</v>
       </c>
       <c r="G174">
-        <v>52.86</v>
+        <v>77.33</v>
       </c>
       <c r="H174">
-        <v>17.3</v>
+        <v>23.6</v>
       </c>
       <c r="I174">
-        <v>57.82</v>
+        <v>23.16</v>
       </c>
       <c r="J174">
-        <v>79.04000000000001</v>
+        <v>85.01000000000001</v>
       </c>
       <c r="K174">
-        <v>4.09</v>
+        <v>24.33</v>
       </c>
       <c r="L174">
         <v>-1</v>
@@ -10863,34 +10863,34 @@
         <v>11</v>
       </c>
       <c r="B175">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C175">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F175">
-        <v>35.53</v>
+        <v>71.37</v>
       </c>
       <c r="G175">
-        <v>81.86</v>
+        <v>27.95</v>
       </c>
       <c r="H175">
-        <v>28.46</v>
+        <v>49.33</v>
       </c>
       <c r="I175">
-        <v>7.11</v>
+        <v>0.93</v>
       </c>
       <c r="J175">
-        <v>31.33</v>
+        <v>87.06</v>
       </c>
       <c r="K175">
-        <v>11.61</v>
+        <v>20.68</v>
       </c>
       <c r="L175">
         <v>-1</v>
@@ -10922,34 +10922,34 @@
         <v>11</v>
       </c>
       <c r="B176">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C176">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E176">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F176">
-        <v>87.84999999999999</v>
+        <v>38.75</v>
       </c>
       <c r="G176">
-        <v>44.1</v>
+        <v>23.27</v>
       </c>
       <c r="H176">
-        <v>39.96</v>
+        <v>44.22</v>
       </c>
       <c r="I176">
-        <v>33.44</v>
+        <v>67.88</v>
       </c>
       <c r="J176">
-        <v>76.73999999999999</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="K176">
-        <v>40.98</v>
+        <v>13.5</v>
       </c>
       <c r="L176">
         <v>-1</v>
@@ -10984,31 +10984,31 @@
         <v>26</v>
       </c>
       <c r="C177">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E177">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F177">
-        <v>20.96</v>
+        <v>7.49</v>
       </c>
       <c r="G177">
-        <v>86.58</v>
+        <v>62.94</v>
       </c>
       <c r="H177">
-        <v>24.08</v>
+        <v>22.4</v>
       </c>
       <c r="I177">
-        <v>2.49</v>
+        <v>71.69</v>
       </c>
       <c r="J177">
-        <v>60.05</v>
+        <v>44.26</v>
       </c>
       <c r="K177">
-        <v>42.29</v>
+        <v>41.99</v>
       </c>
       <c r="L177">
         <v>-1</v>
@@ -11037,37 +11037,37 @@
     </row>
     <row r="178" spans="1:19">
       <c r="A178">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B178">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D178">
         <v>1</v>
       </c>
       <c r="E178">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F178">
-        <v>1.61</v>
+        <v>87.25</v>
       </c>
       <c r="G178">
-        <v>20.47</v>
+        <v>79.64</v>
       </c>
       <c r="H178">
-        <v>2.43</v>
+        <v>12.32</v>
       </c>
       <c r="I178">
-        <v>31.04</v>
+        <v>54.75</v>
       </c>
       <c r="J178">
-        <v>35.8</v>
+        <v>49.54</v>
       </c>
       <c r="K178">
-        <v>24.29</v>
+        <v>20.17</v>
       </c>
       <c r="L178">
         <v>-1</v>
@@ -11096,37 +11096,37 @@
     </row>
     <row r="179" spans="1:19">
       <c r="A179">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B179">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F179">
-        <v>41.06</v>
+        <v>59.56</v>
       </c>
       <c r="G179">
-        <v>55.19</v>
+        <v>29.61</v>
       </c>
       <c r="H179">
-        <v>29.26</v>
+        <v>24.68</v>
       </c>
       <c r="I179">
-        <v>51.9</v>
+        <v>46.92</v>
       </c>
       <c r="J179">
-        <v>50.12</v>
+        <v>31.7</v>
       </c>
       <c r="K179">
-        <v>46.08</v>
+        <v>28.9</v>
       </c>
       <c r="L179">
         <v>-1</v>
@@ -11161,31 +11161,31 @@
         <v>21</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E180">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F180">
-        <v>41.41</v>
+        <v>82.97</v>
       </c>
       <c r="G180">
-        <v>64.43000000000001</v>
+        <v>30.94</v>
       </c>
       <c r="H180">
-        <v>38.39</v>
+        <v>37.08</v>
       </c>
       <c r="I180">
-        <v>19.26</v>
+        <v>60.61</v>
       </c>
       <c r="J180">
-        <v>45.13</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K180">
-        <v>6.24</v>
+        <v>38.38</v>
       </c>
       <c r="L180">
         <v>-1</v>
@@ -11220,31 +11220,31 @@
         <v>21</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D181">
         <v>2</v>
       </c>
       <c r="E181">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F181">
-        <v>20.37</v>
+        <v>57.4</v>
       </c>
       <c r="G181">
-        <v>79.59</v>
+        <v>18.91</v>
       </c>
       <c r="H181">
-        <v>39.06</v>
+        <v>40.53</v>
       </c>
       <c r="I181">
-        <v>44.06</v>
+        <v>49.28</v>
       </c>
       <c r="J181">
-        <v>45.04</v>
+        <v>68.44</v>
       </c>
       <c r="K181">
-        <v>14.03</v>
+        <v>12.68</v>
       </c>
       <c r="L181">
         <v>-1</v>
@@ -11279,7 +11279,7 @@
         <v>21</v>
       </c>
       <c r="C182">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -11288,22 +11288,22 @@
         <v>5</v>
       </c>
       <c r="F182">
-        <v>77.53</v>
+        <v>20.97</v>
       </c>
       <c r="G182">
-        <v>71</v>
+        <v>10.53</v>
       </c>
       <c r="H182">
-        <v>17.41</v>
+        <v>23.64</v>
       </c>
       <c r="I182">
-        <v>12.56</v>
+        <v>34.27</v>
       </c>
       <c r="J182">
-        <v>56.93</v>
+        <v>58.52</v>
       </c>
       <c r="K182">
-        <v>38.36</v>
+        <v>33.37</v>
       </c>
       <c r="L182">
         <v>-1</v>
@@ -11338,31 +11338,31 @@
         <v>21</v>
       </c>
       <c r="C183">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D183">
         <v>3</v>
       </c>
       <c r="E183">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F183">
-        <v>50.91</v>
+        <v>76.22</v>
       </c>
       <c r="G183">
-        <v>93.16</v>
+        <v>12.97</v>
       </c>
       <c r="H183">
-        <v>36.57</v>
+        <v>33.17</v>
       </c>
       <c r="I183">
-        <v>35.31</v>
+        <v>75.91</v>
       </c>
       <c r="J183">
-        <v>65.04000000000001</v>
+        <v>64</v>
       </c>
       <c r="K183">
-        <v>9.039999999999999</v>
+        <v>35.4</v>
       </c>
       <c r="L183">
         <v>-1</v>
@@ -11394,34 +11394,34 @@
         <v>12</v>
       </c>
       <c r="B184">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E184">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F184">
-        <v>44.38</v>
+        <v>42.47</v>
       </c>
       <c r="G184">
-        <v>42.53</v>
+        <v>43.12</v>
       </c>
       <c r="H184">
-        <v>8.99</v>
+        <v>17.26</v>
       </c>
       <c r="I184">
-        <v>49.69</v>
+        <v>26.12</v>
       </c>
       <c r="J184">
-        <v>55.15</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="K184">
-        <v>46.58</v>
+        <v>10.43</v>
       </c>
       <c r="L184">
         <v>-1</v>
@@ -11456,31 +11456,31 @@
         <v>22</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E185">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F185">
-        <v>93.76000000000001</v>
+        <v>94.77</v>
       </c>
       <c r="G185">
-        <v>85.23999999999999</v>
+        <v>53.76</v>
       </c>
       <c r="H185">
-        <v>27.7</v>
+        <v>4.08</v>
       </c>
       <c r="I185">
-        <v>78.23999999999999</v>
+        <v>31.27</v>
       </c>
       <c r="J185">
-        <v>51.84</v>
+        <v>51.34</v>
       </c>
       <c r="K185">
-        <v>1.93</v>
+        <v>1.18</v>
       </c>
       <c r="L185">
         <v>-1</v>
@@ -11515,31 +11515,31 @@
         <v>22</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F186">
-        <v>86.47</v>
+        <v>38.18</v>
       </c>
       <c r="G186">
-        <v>25.62</v>
+        <v>67.97</v>
       </c>
       <c r="H186">
-        <v>47.64</v>
+        <v>21.57</v>
       </c>
       <c r="I186">
-        <v>71.09999999999999</v>
+        <v>17.6</v>
       </c>
       <c r="J186">
-        <v>63.66</v>
+        <v>46.5</v>
       </c>
       <c r="K186">
-        <v>29.92</v>
+        <v>20.88</v>
       </c>
       <c r="L186">
         <v>-1</v>
@@ -11580,25 +11580,25 @@
         <v>1</v>
       </c>
       <c r="E187">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F187">
-        <v>45.62</v>
+        <v>7.7</v>
       </c>
       <c r="G187">
-        <v>78.95</v>
+        <v>44.99</v>
       </c>
       <c r="H187">
-        <v>17.45</v>
+        <v>18.15</v>
       </c>
       <c r="I187">
-        <v>1.05</v>
+        <v>52.91</v>
       </c>
       <c r="J187">
-        <v>41.77</v>
+        <v>32.02</v>
       </c>
       <c r="K187">
-        <v>21.41</v>
+        <v>48.91</v>
       </c>
       <c r="L187">
         <v>-1</v>
@@ -11630,34 +11630,34 @@
         <v>12</v>
       </c>
       <c r="B188">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C188">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>64.09999999999999</v>
+        <v>26.14</v>
       </c>
       <c r="G188">
-        <v>54.67</v>
+        <v>74.66</v>
       </c>
       <c r="H188">
-        <v>38.29</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="I188">
-        <v>27.12</v>
+        <v>6.35</v>
       </c>
       <c r="J188">
-        <v>75.59999999999999</v>
+        <v>83.38</v>
       </c>
       <c r="K188">
-        <v>32.81</v>
+        <v>29.08</v>
       </c>
       <c r="L188">
         <v>-1</v>
@@ -11692,31 +11692,31 @@
         <v>23</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E189">
         <v>7</v>
       </c>
       <c r="F189">
-        <v>5.59</v>
+        <v>33.09</v>
       </c>
       <c r="G189">
-        <v>49.97</v>
+        <v>44.29</v>
       </c>
       <c r="H189">
-        <v>22.61</v>
+        <v>16.77</v>
       </c>
       <c r="I189">
-        <v>17.55</v>
+        <v>46.12</v>
       </c>
       <c r="J189">
-        <v>78.70999999999999</v>
+        <v>40.77</v>
       </c>
       <c r="K189">
-        <v>27.6</v>
+        <v>18.73</v>
       </c>
       <c r="L189">
         <v>-1</v>
@@ -11748,34 +11748,34 @@
         <v>12</v>
       </c>
       <c r="B190">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C190">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E190">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F190">
-        <v>18.93</v>
+        <v>19.68</v>
       </c>
       <c r="G190">
-        <v>43.32</v>
+        <v>83.73999999999999</v>
       </c>
       <c r="H190">
-        <v>22.13</v>
+        <v>33.55</v>
       </c>
       <c r="I190">
-        <v>61.74</v>
+        <v>1.75</v>
       </c>
       <c r="J190">
-        <v>69.97</v>
+        <v>70.63</v>
       </c>
       <c r="K190">
-        <v>13.22</v>
+        <v>46.78</v>
       </c>
       <c r="L190">
         <v>-1</v>
@@ -11810,31 +11810,31 @@
         <v>24</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E191">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F191">
-        <v>5.34</v>
+        <v>54.67</v>
       </c>
       <c r="G191">
-        <v>88.41</v>
+        <v>74.81</v>
       </c>
       <c r="H191">
-        <v>36.07</v>
+        <v>22.3</v>
       </c>
       <c r="I191">
-        <v>13.78</v>
+        <v>52.34</v>
       </c>
       <c r="J191">
-        <v>58.85</v>
+        <v>42.06</v>
       </c>
       <c r="K191">
-        <v>35.86</v>
+        <v>11.7</v>
       </c>
       <c r="L191">
         <v>-1</v>
@@ -11869,31 +11869,31 @@
         <v>24</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D192">
         <v>3</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F192">
-        <v>57.31</v>
+        <v>24.03</v>
       </c>
       <c r="G192">
-        <v>48.39</v>
+        <v>75.42</v>
       </c>
       <c r="H192">
-        <v>1.2</v>
+        <v>28.82</v>
       </c>
       <c r="I192">
-        <v>17.95</v>
+        <v>42.27</v>
       </c>
       <c r="J192">
-        <v>66.25</v>
+        <v>74.84999999999999</v>
       </c>
       <c r="K192">
-        <v>44.4</v>
+        <v>11.26</v>
       </c>
       <c r="L192">
         <v>-1</v>
@@ -11925,34 +11925,34 @@
         <v>12</v>
       </c>
       <c r="B193">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C193">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E193">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>49.83</v>
+        <v>52.9</v>
       </c>
       <c r="G193">
-        <v>65.77</v>
+        <v>25.98</v>
       </c>
       <c r="H193">
-        <v>39.94</v>
+        <v>16.06</v>
       </c>
       <c r="I193">
-        <v>79.44</v>
+        <v>11.74</v>
       </c>
       <c r="J193">
-        <v>81.58</v>
+        <v>55.83</v>
       </c>
       <c r="K193">
-        <v>14.62</v>
+        <v>42.56</v>
       </c>
       <c r="L193">
         <v>-1</v>
@@ -11987,7 +11987,7 @@
         <v>25</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D194">
         <v>2</v>
@@ -11996,22 +11996,22 @@
         <v>6</v>
       </c>
       <c r="F194">
-        <v>38.75</v>
+        <v>95.37</v>
       </c>
       <c r="G194">
-        <v>23.27</v>
+        <v>26.63</v>
       </c>
       <c r="H194">
-        <v>44.22</v>
+        <v>49.58</v>
       </c>
       <c r="I194">
-        <v>67.88</v>
+        <v>1.75</v>
       </c>
       <c r="J194">
-        <v>72.79000000000001</v>
+        <v>53.62</v>
       </c>
       <c r="K194">
-        <v>13.5</v>
+        <v>48.53</v>
       </c>
       <c r="L194">
         <v>-1</v>
@@ -12046,31 +12046,31 @@
         <v>25</v>
       </c>
       <c r="C195">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D195">
         <v>1</v>
       </c>
       <c r="E195">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F195">
-        <v>23.95</v>
+        <v>92.02</v>
       </c>
       <c r="G195">
-        <v>15.77</v>
+        <v>57.15</v>
       </c>
       <c r="H195">
-        <v>7.51</v>
+        <v>29.64</v>
       </c>
       <c r="I195">
-        <v>43.32</v>
+        <v>73.89</v>
       </c>
       <c r="J195">
-        <v>60.71</v>
+        <v>60.67</v>
       </c>
       <c r="K195">
-        <v>48.02</v>
+        <v>37.77</v>
       </c>
       <c r="L195">
         <v>-1</v>
@@ -12102,34 +12102,34 @@
         <v>12</v>
       </c>
       <c r="B196">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C196">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D196">
         <v>2</v>
       </c>
       <c r="E196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>71.37</v>
+        <v>20.96</v>
       </c>
       <c r="G196">
-        <v>27.95</v>
+        <v>86.58</v>
       </c>
       <c r="H196">
-        <v>49.33</v>
+        <v>24.08</v>
       </c>
       <c r="I196">
-        <v>0.93</v>
+        <v>2.49</v>
       </c>
       <c r="J196">
-        <v>87.06</v>
+        <v>60.05</v>
       </c>
       <c r="K196">
-        <v>20.68</v>
+        <v>42.29</v>
       </c>
       <c r="L196">
         <v>-1</v>
@@ -12161,34 +12161,34 @@
         <v>12</v>
       </c>
       <c r="B197">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C197">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E197">
         <v>6</v>
       </c>
       <c r="F197">
-        <v>51.28</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="G197">
-        <v>77.33</v>
+        <v>44.1</v>
       </c>
       <c r="H197">
-        <v>23.6</v>
+        <v>39.96</v>
       </c>
       <c r="I197">
-        <v>23.16</v>
+        <v>33.44</v>
       </c>
       <c r="J197">
-        <v>85.01000000000001</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="K197">
-        <v>24.33</v>
+        <v>40.98</v>
       </c>
       <c r="L197">
         <v>-1</v>
@@ -12220,10 +12220,10 @@
         <v>12</v>
       </c>
       <c r="B198">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C198">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -12232,22 +12232,22 @@
         <v>3</v>
       </c>
       <c r="F198">
-        <v>94.47</v>
+        <v>35.53</v>
       </c>
       <c r="G198">
-        <v>73.22</v>
+        <v>81.86</v>
       </c>
       <c r="H198">
-        <v>26.42</v>
+        <v>28.46</v>
       </c>
       <c r="I198">
-        <v>28.86</v>
+        <v>7.11</v>
       </c>
       <c r="J198">
-        <v>30.17</v>
+        <v>31.33</v>
       </c>
       <c r="K198">
-        <v>48.56</v>
+        <v>11.61</v>
       </c>
       <c r="L198">
         <v>-1</v>
@@ -12282,31 +12282,31 @@
         <v>26</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E199">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F199">
-        <v>87.25</v>
+        <v>10.91</v>
       </c>
       <c r="G199">
-        <v>79.64</v>
+        <v>52.86</v>
       </c>
       <c r="H199">
-        <v>12.32</v>
+        <v>17.3</v>
       </c>
       <c r="I199">
-        <v>54.75</v>
+        <v>57.82</v>
       </c>
       <c r="J199">
-        <v>49.54</v>
+        <v>79.04000000000001</v>
       </c>
       <c r="K199">
-        <v>20.17</v>
+        <v>4.09</v>
       </c>
       <c r="L199">
         <v>-1</v>
@@ -12330,124 +12330,6 @@
         <v>-1</v>
       </c>
       <c r="S199">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:19">
-      <c r="A200">
-        <v>12</v>
-      </c>
-      <c r="B200">
-        <v>26</v>
-      </c>
-      <c r="C200">
-        <v>5</v>
-      </c>
-      <c r="D200">
-        <v>2</v>
-      </c>
-      <c r="E200">
-        <v>2</v>
-      </c>
-      <c r="F200">
-        <v>59.56</v>
-      </c>
-      <c r="G200">
-        <v>29.61</v>
-      </c>
-      <c r="H200">
-        <v>24.68</v>
-      </c>
-      <c r="I200">
-        <v>46.92</v>
-      </c>
-      <c r="J200">
-        <v>31.7</v>
-      </c>
-      <c r="K200">
-        <v>28.9</v>
-      </c>
-      <c r="L200">
-        <v>-1</v>
-      </c>
-      <c r="M200">
-        <v>-1</v>
-      </c>
-      <c r="N200">
-        <v>-1</v>
-      </c>
-      <c r="O200">
-        <v>-1</v>
-      </c>
-      <c r="P200">
-        <v>-1</v>
-      </c>
-      <c r="Q200">
-        <v>-1</v>
-      </c>
-      <c r="R200">
-        <v>-1</v>
-      </c>
-      <c r="S200">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:19">
-      <c r="A201">
-        <v>12</v>
-      </c>
-      <c r="B201">
-        <v>26</v>
-      </c>
-      <c r="C201">
-        <v>8</v>
-      </c>
-      <c r="D201">
-        <v>3</v>
-      </c>
-      <c r="E201">
-        <v>3</v>
-      </c>
-      <c r="F201">
-        <v>7.49</v>
-      </c>
-      <c r="G201">
-        <v>62.94</v>
-      </c>
-      <c r="H201">
-        <v>22.4</v>
-      </c>
-      <c r="I201">
-        <v>71.69</v>
-      </c>
-      <c r="J201">
-        <v>44.26</v>
-      </c>
-      <c r="K201">
-        <v>41.99</v>
-      </c>
-      <c r="L201">
-        <v>-1</v>
-      </c>
-      <c r="M201">
-        <v>-1</v>
-      </c>
-      <c r="N201">
-        <v>-1</v>
-      </c>
-      <c r="O201">
-        <v>-1</v>
-      </c>
-      <c r="P201">
-        <v>-1</v>
-      </c>
-      <c r="Q201">
-        <v>-1</v>
-      </c>
-      <c r="R201">
-        <v>-1</v>
-      </c>
-      <c r="S201">
         <v>-1</v>
       </c>
     </row>
@@ -12593,7 +12475,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -12604,7 +12486,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -13117,7 +12999,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -13128,7 +13010,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -13139,7 +13021,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -13150,7 +13032,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -13161,7 +13043,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
